--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_458.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_458.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32655-d589309-Reviews-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>186</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Knights-Inn-Los-Angeles-Ca.h1357095.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_458.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_458.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="434">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1222 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r581801811-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>32655</t>
+  </si>
+  <si>
+    <t>589309</t>
+  </si>
+  <si>
+    <t>581801811</t>
+  </si>
+  <si>
+    <t>05/21/2018</t>
+  </si>
+  <si>
+    <t>Great value for money!</t>
+  </si>
+  <si>
+    <t>Stayed here whilst working in LA and whilst it is a budget hotel, it's clean and comfortable and a great location for getting about.
+The rooms are a decent size and clean with a great shower, big tv, air con and a coffee make which, being british, we used to make tea too. We had a fridge and an iron in our room which were useful! The WiFi is sporadic but you can get a better if you move about...... There's no safe in the room but we had no issues with anything being tampered with during our stay. 
+The breakfast is simple but good, with cereal, toast, fruit and hot drinks available. The staff make waffles too which were great. The cutlery is plastic and the plates are polystyrene which wasn't great but perfectly useable.
+As others have said, there is a small parking garage but as I didn't have a car, this wasn't a concern. There was space for taxis to stop outside if you use them.
+The area is away from downtown LA so don't expect bars and restaurants but it felt safe and many of the people we spoke to said it was a great, diverse part of town. Just up the road was a Taco truck that one cab driver said was the best in the US!
+ If you are looking to save money on your accommodation, this is a great hotel. i would stay...Stayed here whilst working in LA and whilst it is a budget hotel, it's clean and comfortable and a great location for getting about.The rooms are a decent size and clean with a great shower, big tv, air con and a coffee make which, being british, we used to make tea too. We had a fridge and an iron in our room which were useful! The WiFi is sporadic but you can get a better if you move about...... There's no safe in the room but we had no issues with anything being tampered with during our stay. The breakfast is simple but good, with cereal, toast, fruit and hot drinks available. The staff make waffles too which were great. The cutlery is plastic and the plates are polystyrene which wasn't great but perfectly useable.As others have said, there is a small parking garage but as I didn't have a car, this wasn't a concern. There was space for taxis to stop outside if you use them.The area is away from downtown LA so don't expect bars and restaurants but it felt safe and many of the people we spoke to said it was a great, diverse part of town. Just up the road was a Taco truck that one cab driver said was the best in the US! If you are looking to save money on your accommodation, this is a great hotel. i would stay here again, for sure.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Stayed here whilst working in LA and whilst it is a budget hotel, it's clean and comfortable and a great location for getting about.
+The rooms are a decent size and clean with a great shower, big tv, air con and a coffee make which, being british, we used to make tea too. We had a fridge and an iron in our room which were useful! The WiFi is sporadic but you can get a better if you move about...... There's no safe in the room but we had no issues with anything being tampered with during our stay. 
+The breakfast is simple but good, with cereal, toast, fruit and hot drinks available. The staff make waffles too which were great. The cutlery is plastic and the plates are polystyrene which wasn't great but perfectly useable.
+As others have said, there is a small parking garage but as I didn't have a car, this wasn't a concern. There was space for taxis to stop outside if you use them.
+The area is away from downtown LA so don't expect bars and restaurants but it felt safe and many of the people we spoke to said it was a great, diverse part of town. Just up the road was a Taco truck that one cab driver said was the best in the US!
+ If you are looking to save money on your accommodation, this is a great hotel. i would stay...Stayed here whilst working in LA and whilst it is a budget hotel, it's clean and comfortable and a great location for getting about.The rooms are a decent size and clean with a great shower, big tv, air con and a coffee make which, being british, we used to make tea too. We had a fridge and an iron in our room which were useful! The WiFi is sporadic but you can get a better if you move about...... There's no safe in the room but we had no issues with anything being tampered with during our stay. The breakfast is simple but good, with cereal, toast, fruit and hot drinks available. The staff make waffles too which were great. The cutlery is plastic and the plates are polystyrene which wasn't great but perfectly useable.As others have said, there is a small parking garage but as I didn't have a car, this wasn't a concern. There was space for taxis to stop outside if you use them.The area is away from downtown LA so don't expect bars and restaurants but it felt safe and many of the people we spoke to said it was a great, diverse part of town. Just up the road was a Taco truck that one cab driver said was the best in the US! If you are looking to save money on your accommodation, this is a great hotel. i would stay here again, for sure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r580250586-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>580250586</t>
+  </si>
+  <si>
+    <t>05/14/2018</t>
+  </si>
+  <si>
+    <t>Amazing stay</t>
+  </si>
+  <si>
+    <t>First of all great location. The staff is very friendly and helpful. Room was nice and clean.Breakfast in a dinning room where a lady was always helping when needed.We lockedour key in the car and the manager helped us even with this problem for free.We will  be there again.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r579251215-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>579251215</t>
+  </si>
+  <si>
+    <t>05/10/2018</t>
+  </si>
+  <si>
+    <t>double charged me .</t>
+  </si>
+  <si>
+    <t>I booked in advance via agoda for 14 April to 16 April and was charged via agoda.When i checked out, there was no mention of any charge as expected. But when I returned home 2 weeks later, I notice that Knight's Inn had charged me the same amount again USD 191.67I've emailed the hotel and there is just silence. So be warned if you want to book this hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r572091694-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>572091694</t>
+  </si>
+  <si>
+    <t>04/09/2018</t>
+  </si>
+  <si>
+    <t>Arrived... and left right away!!!</t>
+  </si>
+  <si>
+    <t>** this is the first hotel I ever booked &amp; canceled my stay upon arrival** Booked two nights here through southwest.com-reviews &amp; pics looked decent. I travel and stay at hotels for work at least twice a month...I could not believe the stuff I saw. Right when I parked, the smell of weed and amount of ladies walking around like it’s the red light district is the the first thing I noticed. The doors didn’t look safe- my guest and I even considered leaving our luggage in the car because it’s safer? Room wasn’t ready upon arrival anyway. Maybe because it was All Star weekend, it was like a circus outside but personally my safety is very important to me. So we didn’t end up checking in and canceled our stay there. Worth paying more money to stay somewhere with more security and sleep without any fear. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>** this is the first hotel I ever booked &amp; canceled my stay upon arrival** Booked two nights here through southwest.com-reviews &amp; pics looked decent. I travel and stay at hotels for work at least twice a month...I could not believe the stuff I saw. Right when I parked, the smell of weed and amount of ladies walking around like it’s the red light district is the the first thing I noticed. The doors didn’t look safe- my guest and I even considered leaving our luggage in the car because it’s safer? Room wasn’t ready upon arrival anyway. Maybe because it was All Star weekend, it was like a circus outside but personally my safety is very important to me. So we didn’t end up checking in and canceled our stay there. Worth paying more money to stay somewhere with more security and sleep without any fear. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r569554103-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>569554103</t>
+  </si>
+  <si>
+    <t>03/29/2018</t>
+  </si>
+  <si>
+    <t>Modest clean accommodation that is conveniently located and safe with limited but free parking</t>
+  </si>
+  <si>
+    <t>My husband and I were looking for suitable accommodation for 5 days in LA that was close to down town since he had a conference to attend at the Convention Center in DALA.   We were fortunate to find Knights Inn, which is part of the Wyndham Hotels chain, which was really well priced.  Modest but very clean small rooms with attached bath.   We could even park our car in the covered parking right in the compound.  Free continental breakfast was included as well.  The freshly made waffles were a treat, as were the delicious strawberries and other fruits.   The hotel had a wonderful Filipino restaurant closeby where I sampled Filipino cuisine for the first time and loved it!   Just across the hotel was K Bakery, which had the best Mexican sweetbreads and freshly squeezed juices!   I took the Uber to the sites I wanted to visit, and even walked back one afternoon after a day at the Broad museum.   Good value for money.  I felt very much at home at Knights Inn, which had guests from literally all corners of the world!  The staff was friendly and very helpful.    One side of the hotel faces the freeway which can be noisy, but we were fortunate to have a street side room.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>My husband and I were looking for suitable accommodation for 5 days in LA that was close to down town since he had a conference to attend at the Convention Center in DALA.   We were fortunate to find Knights Inn, which is part of the Wyndham Hotels chain, which was really well priced.  Modest but very clean small rooms with attached bath.   We could even park our car in the covered parking right in the compound.  Free continental breakfast was included as well.  The freshly made waffles were a treat, as were the delicious strawberries and other fruits.   The hotel had a wonderful Filipino restaurant closeby where I sampled Filipino cuisine for the first time and loved it!   Just across the hotel was K Bakery, which had the best Mexican sweetbreads and freshly squeezed juices!   I took the Uber to the sites I wanted to visit, and even walked back one afternoon after a day at the Broad museum.   Good value for money.  I felt very much at home at Knights Inn, which had guests from literally all corners of the world!  The staff was friendly and very helpful.    One side of the hotel faces the freeway which can be noisy, but we were fortunate to have a street side room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r557833151-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>557833151</t>
+  </si>
+  <si>
+    <t>02/01/2018</t>
+  </si>
+  <si>
+    <t>Very noisy because it on the side of the 101 highway</t>
+  </si>
+  <si>
+    <t>Outdated, noisy, cheap. Use it only if you don't have any other options.My room was on the highway side and noise from the highway was awful. You can barely sleep with this noise. Airconditioner was another noisy thing. It is in the cheap area and there are no decent restaurants nearby. Non recommended.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r538998761-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>538998761</t>
+  </si>
+  <si>
+    <t>11/06/2017</t>
+  </si>
+  <si>
+    <t>LA 18th birthday trip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room was very spacious. The breakfast was incredible because they served freshly made waffles, had APPLES AND CINNAMON  OATMEAL.!! The view wasn't the best but overall super happy. Oh and free parking. </t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r527860100-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>527860100</t>
+  </si>
+  <si>
+    <t>09/27/2017</t>
+  </si>
+  <si>
+    <t>Road trip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice welcome, clean room very big with iron and coffee facilities, however American type takes ages to heat up. nice breakfast, bus stop outside with lovely bakery, they even paid for our taxi to the greyhound bus station, would say again </t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r506555609-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>506555609</t>
+  </si>
+  <si>
+    <t>07/28/2017</t>
+  </si>
+  <si>
+    <t>It's good for a budget hotel</t>
+  </si>
+  <si>
+    <t>Ok i been to a few hotels in la area from nice to horrible. So im rateing this a 5 star on a budget hotel and compare to the other hotels around the area meaning hollywood and downtown lA im not gonna compare it to the high end hotel but just the budget ones.. Ok the price is good even for the summer time you can get at least for under 100 bucks its usaually ranges from 77 go 90 dollars but if you do it in day or two adavnce but it will go over 100 if you do it the day of and this place gets sells out fast recomend day of..compare to Hollywood and downtown most budget hotels are close to 200 dollars. Ok the rooms are clean there is a fridge and cable tv ac..wifi worked fine when i was there.. Breakfast was very basic but a little more than some budget hotel but that proably saves on the cost of the hotel . the hotel is in between downtown and hollywood close to dodger stadium. If your doing the tourist thing or buisness.. I would leave your car in there underground parking its secure..and i would uber or lyft everwere or do a 10 min walk to the metro . uber or lyft to downtown if you do the pool is like 3 to 5 dollars and to hollwood it can be 5 to 10...Ok i been to a few hotels in la area from nice to horrible. So im rateing this a 5 star on a budget hotel and compare to the other hotels around the area meaning hollywood and downtown lA im not gonna compare it to the high end hotel but just the budget ones.. Ok the price is good even for the summer time you can get at least for under 100 bucks its usaually ranges from 77 go 90 dollars but if you do it in day or two adavnce but it will go over 100 if you do it the day of and this place gets sells out fast recomend day of..compare to Hollywood and downtown most budget hotels are close to 200 dollars. Ok the rooms are clean there is a fridge and cable tv ac..wifi worked fine when i was there.. Breakfast was very basic but a little more than some budget hotel but that proably saves on the cost of the hotel . the hotel is in between downtown and hollywood close to dodger stadium. If your doing the tourist thing or buisness.. I would leave your car in there underground parking its secure..and i would uber or lyft everwere or do a 10 min walk to the metro . uber or lyft to downtown if you do the pool is like 3 to 5 dollars and to hollwood it can be 5 to 10 dollars but still saves on parking..and avoiding driving in traffic. The rooms were fine and clean yes it might look outdated but so do all the other budget hotel look. If you want to fix it up too look brand spanking new well than the prices would go. They have cable tv flat screen bath and shower . they only modern thing they did not have was a microwave.the area was ok they did not have anywere right by the hotel if you wanted to get something to eat just like a bakery and liqor store but with all thesee apps that you can get stuff deliver it was no problem getriing something.. If you just need a home base like sleep and shower and place to rest inbtween things this place is good . so i give it a 5 stars for a budget hotel not for high end hotel..it allows you to save on your money...MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Ok i been to a few hotels in la area from nice to horrible. So im rateing this a 5 star on a budget hotel and compare to the other hotels around the area meaning hollywood and downtown lA im not gonna compare it to the high end hotel but just the budget ones.. Ok the price is good even for the summer time you can get at least for under 100 bucks its usaually ranges from 77 go 90 dollars but if you do it in day or two adavnce but it will go over 100 if you do it the day of and this place gets sells out fast recomend day of..compare to Hollywood and downtown most budget hotels are close to 200 dollars. Ok the rooms are clean there is a fridge and cable tv ac..wifi worked fine when i was there.. Breakfast was very basic but a little more than some budget hotel but that proably saves on the cost of the hotel . the hotel is in between downtown and hollywood close to dodger stadium. If your doing the tourist thing or buisness.. I would leave your car in there underground parking its secure..and i would uber or lyft everwere or do a 10 min walk to the metro . uber or lyft to downtown if you do the pool is like 3 to 5 dollars and to hollwood it can be 5 to 10...Ok i been to a few hotels in la area from nice to horrible. So im rateing this a 5 star on a budget hotel and compare to the other hotels around the area meaning hollywood and downtown lA im not gonna compare it to the high end hotel but just the budget ones.. Ok the price is good even for the summer time you can get at least for under 100 bucks its usaually ranges from 77 go 90 dollars but if you do it in day or two adavnce but it will go over 100 if you do it the day of and this place gets sells out fast recomend day of..compare to Hollywood and downtown most budget hotels are close to 200 dollars. Ok the rooms are clean there is a fridge and cable tv ac..wifi worked fine when i was there.. Breakfast was very basic but a little more than some budget hotel but that proably saves on the cost of the hotel . the hotel is in between downtown and hollywood close to dodger stadium. If your doing the tourist thing or buisness.. I would leave your car in there underground parking its secure..and i would uber or lyft everwere or do a 10 min walk to the metro . uber or lyft to downtown if you do the pool is like 3 to 5 dollars and to hollwood it can be 5 to 10 dollars but still saves on parking..and avoiding driving in traffic. The rooms were fine and clean yes it might look outdated but so do all the other budget hotel look. If you want to fix it up too look brand spanking new well than the prices would go. They have cable tv flat screen bath and shower . they only modern thing they did not have was a microwave.the area was ok they did not have anywere right by the hotel if you wanted to get something to eat just like a bakery and liqor store but with all thesee apps that you can get stuff deliver it was no problem getriing something.. If you just need a home base like sleep and shower and place to rest inbtween things this place is good . so i give it a 5 stars for a budget hotel not for high end hotel..it allows you to save on your money...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r495510253-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>495510253</t>
+  </si>
+  <si>
+    <t>06/23/2017</t>
+  </si>
+  <si>
+    <t>***BUYER BEWARE*** They'll cancel your reservation without telling you!</t>
+  </si>
+  <si>
+    <t>***BUYER BEWARE***
+I booked this hotel for an event in the area four MONTHS before the event because I knew hotels in the area would fill up fast. I booked it using a credit card that I am very good about paying off and use all the time. I had no issues booking the room. 
+Come the day I was supposed to check in and when I get to the hotel that evening, after a long day on my feet and dead tired, I'm told that my card was declined when they ran the cards that morning and they went to the next person on a waiting list. They didn't try to contact me to find out if there was something wrong with my card, or to allow me to use perhaps another card, they just canceled my reservation and gave it to someone else. 
+THIS IS PISS POOR CUSTOMER SERVICE!!! How can they not even try to get in touch with a customer who makes reservations that far in advance! I was appalled and incredibly distraught with Knights Inn. I will make it a point to never stay at this hotel in the future and I highly recommend you stay away from this hotel as well. 
+The only thing I'll say in their defense is that they did put me in another hotel about a mile away, but the quality of that motel was subpar at best, plus I...***BUYER BEWARE***I booked this hotel for an event in the area four MONTHS before the event because I knew hotels in the area would fill up fast. I booked it using a credit card that I am very good about paying off and use all the time. I had no issues booking the room. Come the day I was supposed to check in and when I get to the hotel that evening, after a long day on my feet and dead tired, I'm told that my card was declined when they ran the cards that morning and they went to the next person on a waiting list. They didn't try to contact me to find out if there was something wrong with my card, or to allow me to use perhaps another card, they just canceled my reservation and gave it to someone else. THIS IS PISS POOR CUSTOMER SERVICE!!! How can they not even try to get in touch with a customer who makes reservations that far in advance! I was appalled and incredibly distraught with Knights Inn. I will make it a point to never stay at this hotel in the future and I highly recommend you stay away from this hotel as well. The only thing I'll say in their defense is that they did put me in another hotel about a mile away, but the quality of that motel was subpar at best, plus I had to walk a mile there with all my bags because I wasn't going to pay for another cab. Made what should have been a great start to a  vacation a nightmare.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>***BUYER BEWARE***
+I booked this hotel for an event in the area four MONTHS before the event because I knew hotels in the area would fill up fast. I booked it using a credit card that I am very good about paying off and use all the time. I had no issues booking the room. 
+Come the day I was supposed to check in and when I get to the hotel that evening, after a long day on my feet and dead tired, I'm told that my card was declined when they ran the cards that morning and they went to the next person on a waiting list. They didn't try to contact me to find out if there was something wrong with my card, or to allow me to use perhaps another card, they just canceled my reservation and gave it to someone else. 
+THIS IS PISS POOR CUSTOMER SERVICE!!! How can they not even try to get in touch with a customer who makes reservations that far in advance! I was appalled and incredibly distraught with Knights Inn. I will make it a point to never stay at this hotel in the future and I highly recommend you stay away from this hotel as well. 
+The only thing I'll say in their defense is that they did put me in another hotel about a mile away, but the quality of that motel was subpar at best, plus I...***BUYER BEWARE***I booked this hotel for an event in the area four MONTHS before the event because I knew hotels in the area would fill up fast. I booked it using a credit card that I am very good about paying off and use all the time. I had no issues booking the room. Come the day I was supposed to check in and when I get to the hotel that evening, after a long day on my feet and dead tired, I'm told that my card was declined when they ran the cards that morning and they went to the next person on a waiting list. They didn't try to contact me to find out if there was something wrong with my card, or to allow me to use perhaps another card, they just canceled my reservation and gave it to someone else. THIS IS PISS POOR CUSTOMER SERVICE!!! How can they not even try to get in touch with a customer who makes reservations that far in advance! I was appalled and incredibly distraught with Knights Inn. I will make it a point to never stay at this hotel in the future and I highly recommend you stay away from this hotel as well. The only thing I'll say in their defense is that they did put me in another hotel about a mile away, but the quality of that motel was subpar at best, plus I had to walk a mile there with all my bags because I wasn't going to pay for another cab. Made what should have been a great start to a  vacation a nightmare.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r488403099-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>488403099</t>
+  </si>
+  <si>
+    <t>05/28/2017</t>
+  </si>
+  <si>
+    <t>Decent place to stay</t>
+  </si>
+  <si>
+    <t>Hotel was nice and clean and breakfast was ok. There is very little parking space and you can hear everything what happens in streets.  Also wifi was very poor. Location was nice, short distance from downtown and you can drive easily to hollywood.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r481949889-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>481949889</t>
+  </si>
+  <si>
+    <t>05/05/2017</t>
+  </si>
+  <si>
+    <t>Decent</t>
+  </si>
+  <si>
+    <t>Clean, Spacious rooms in a derelict neighbourhood. Close to downtown metro station which can take you to most sights (not rodeo drive though) . Breakfast is allright, you get what you pay for. Good enough for a short stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r459750501-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>459750501</t>
+  </si>
+  <si>
+    <t>02/14/2017</t>
+  </si>
+  <si>
+    <t>Expected better after previewing the Wyndham website</t>
+  </si>
+  <si>
+    <t>I will be generous and give them 3 stars because the guy at the front desk was friendly and helpful.  I realized this was a basic budget motel but after seeing it in person I can't believe it's a Wyndham property and it certainly didn't look like the room photos I saw on the Wyndham site.  It's a very small property and the two rooms we saw were tiny, very very outdated with full sized beds, scuffed furniture, and very old bathrooms.  Depressing and dark in general.  First room had no towels and I was thinking how it looked really different than the pictures online and we asked for maybe a quieter room and he showed us one at the far back but it was just the same.  We decided not to stay and we appreciate that he promptly refunded our money.  The downstairs parking garage was very small and it probably doesn't accommodate all the guests but they do lock it so it would be secure.  The property is tiny, only about 25 rooms.  One website says they have a restaurant -- that is definitely not true.  Maybe they have a couple of updated rooms and that is what is featured online but the rooms we previewed were more like 1979.  Again, front desk was very helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>I will be generous and give them 3 stars because the guy at the front desk was friendly and helpful.  I realized this was a basic budget motel but after seeing it in person I can't believe it's a Wyndham property and it certainly didn't look like the room photos I saw on the Wyndham site.  It's a very small property and the two rooms we saw were tiny, very very outdated with full sized beds, scuffed furniture, and very old bathrooms.  Depressing and dark in general.  First room had no towels and I was thinking how it looked really different than the pictures online and we asked for maybe a quieter room and he showed us one at the far back but it was just the same.  We decided not to stay and we appreciate that he promptly refunded our money.  The downstairs parking garage was very small and it probably doesn't accommodate all the guests but they do lock it so it would be secure.  The property is tiny, only about 25 rooms.  One website says they have a restaurant -- that is definitely not true.  Maybe they have a couple of updated rooms and that is what is featured online but the rooms we previewed were more like 1979.  Again, front desk was very helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r458937290-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>458937290</t>
+  </si>
+  <si>
+    <t>02/12/2017</t>
+  </si>
+  <si>
+    <t>Uncomfortable stay felt dizzy and sick after.</t>
+  </si>
+  <si>
+    <t>I don't know if this has ever happened to anyone else, but the beds were so uncomfortable they made dizzy and sick. My SO thought that the bed was the box spring, that's how uncomfortable it felt. Anyway don't stay here, we stayed at a motel 6 in Rosemead that was much more comfortable.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r446809303-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>446809303</t>
+  </si>
+  <si>
+    <t>12/26/2016</t>
+  </si>
+  <si>
+    <t>DON'T USE THIS HOTEL</t>
+  </si>
+  <si>
+    <t>It was a terrible experience.The old staff was unkind. He ignored me ten minutes and finally started the check-in.The room was very noisy because of freeway.Bathroom was dirty and I found many ants in the room.Old equipments, too small parking lot...I never use here.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r433429534-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>433429534</t>
+  </si>
+  <si>
+    <t>10/31/2016</t>
+  </si>
+  <si>
+    <t>Had everything that I needed</t>
+  </si>
+  <si>
+    <t>The room looked to be renovated relatively recently. The walls are very thin and the building is next to the freeway so expect a fair amount of noise. Mini fridge but no microwave. No elevator. Breakfast was very nice with cereal, bread, waffles, and my favorite part, fresh fruit. There is a limited number of parking spaces so if you really want to park there, be back to the hotel early. Otherwise the only other option is to park on the street but the neighborhood is relatively safe; just really busy during the day. The wifi is just okay. You won't be able to do any bandwidth sensitive tasks but it's adequate for checking emails and light browsing.Some tips: 1.) If you want ice, bring your ice bucket to the office and ask the person there so they can take you to the kitchen to get some. Also, you can get some during breakfast when it is also open. Just ask the staff. They're really nice and helpful.2.) Try the BBQ place up the street.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>The room looked to be renovated relatively recently. The walls are very thin and the building is next to the freeway so expect a fair amount of noise. Mini fridge but no microwave. No elevator. Breakfast was very nice with cereal, bread, waffles, and my favorite part, fresh fruit. There is a limited number of parking spaces so if you really want to park there, be back to the hotel early. Otherwise the only other option is to park on the street but the neighborhood is relatively safe; just really busy during the day. The wifi is just okay. You won't be able to do any bandwidth sensitive tasks but it's adequate for checking emails and light browsing.Some tips: 1.) If you want ice, bring your ice bucket to the office and ask the person there so they can take you to the kitchen to get some. Also, you can get some during breakfast when it is also open. Just ask the staff. They're really nice and helpful.2.) Try the BBQ place up the street.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r414403797-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>414403797</t>
+  </si>
+  <si>
+    <t>09/03/2016</t>
+  </si>
+  <si>
+    <t>Clean and comfortable</t>
+  </si>
+  <si>
+    <t>Great location, close to lots of the highways/freeway entrances but also good for using local/back roads. Found it very easy to get in and out of the city from here. Free parking and breakfast is a bonus. Parking is secured by a gate at night too.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r410327926-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>410327926</t>
+  </si>
+  <si>
+    <t>08/24/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Girls weekend getaway! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I loved thia location!! I was a little hesitant because I had never stayed at a Knights Inn before. The was perfect. Right near the freeway. The hotel was very clean and the hotel staff was AMAZING. Everyone I met was so pleasant and very helpful. Not to mention a nice hot breakfast and free parking. Not the ritz but I would definitely stay again. We had a blast! Special thanks to Rachel, Adriana and the young man that worked overnight. The breakfast staff as well. </t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r399905572-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>399905572</t>
+  </si>
+  <si>
+    <t>08/01/2016</t>
+  </si>
+  <si>
+    <t>Nice for the price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here as the first stop in LA. Hotel is nice, affordable and close to downtown with access to public transport buses nearby. Stayed in smoke free room. The rooms are small but clean and tidy. Breakfast is complementary and very good. Staff is very polite and friendly. Although kids stay free, please make sure to call them beforehand if you are coming with kids (4 years and less). Please note if you want to go to Hollywood and rely on public transport then it is 1 hour from here (Bus to civic centre and train to hollywood).  Buy a clipper card to use public transport. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r397113784-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>397113784</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>Overnighter with friends</t>
+  </si>
+  <si>
+    <t>I stayed overnight on Saturday 7/23. The parking garage is very small, but there isn't an extra fee for parking. The garage is also locked at night and requires a room key to get in, I appreciated that. Check-in was quick and easy. Now, this place is definitely NOT handicap accessible. Access to the rooms are by stairs and I did not see an elevator anywhere. Just an FYI there. The room was very clean and looks like it was renovated fairly recently. There was a refrigerator and coffee pot in the room, both are nice to have. The shower was very clean and looked pretty new too. The room also included breakfast in the morning. There was a selection of fresh chopped fruit, cereal, bread to toast, coffee, tea, juice, and someone was there to cook/serve scrambled eggs, sausage, and a hash brown. All in all I felt I received a very good deal for the price I paid. The room served its purpose for a quick overnight trip, we would stay again. MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed overnight on Saturday 7/23. The parking garage is very small, but there isn't an extra fee for parking. The garage is also locked at night and requires a room key to get in, I appreciated that. Check-in was quick and easy. Now, this place is definitely NOT handicap accessible. Access to the rooms are by stairs and I did not see an elevator anywhere. Just an FYI there. The room was very clean and looks like it was renovated fairly recently. There was a refrigerator and coffee pot in the room, both are nice to have. The shower was very clean and looked pretty new too. The room also included breakfast in the morning. There was a selection of fresh chopped fruit, cereal, bread to toast, coffee, tea, juice, and someone was there to cook/serve scrambled eggs, sausage, and a hash brown. All in all I felt I received a very good deal for the price I paid. The room served its purpose for a quick overnight trip, we would stay again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r390551194-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>390551194</t>
+  </si>
+  <si>
+    <t>07/08/2016</t>
+  </si>
+  <si>
+    <t>Small room-clean and safe</t>
+  </si>
+  <si>
+    <t>My 16 year old and I went to a Dodger game and needed a room for just the night. I wanted something close but obviously clean and safe. This motel is so close to Dodger Stadium that it took maybe 5 minutes to drive there. The neighborhood doesn't look the greatest but I didn't see anything going on that made me worry. I felt safe at the motel for sure. The room was very small (one queen that seemed more like a full) but it was very clean and the room appeared to have updated furniture and fixtures. They provide earplugs which I thought was cool and a great idea since there's a busy street outside. We were so tired we didn't need them. The parking situation is stressful. There is a tiny garage to use and has maybe 12 spaces is all. If they are full you have to park along side a wall or go out front of their building. The woman that checked us in was extremely rude. I'm so easy going and do not get easily upset but this woman had me heated. She cut me off and told me I could ask questions later. When she wrote down my car information and I attempted to give her my plate number, again she cut me off and told me she didn't need that and did I hear her ask me for that. She spoke to me...My 16 year old and I went to a Dodger game and needed a room for just the night. I wanted something close but obviously clean and safe. This motel is so close to Dodger Stadium that it took maybe 5 minutes to drive there. The neighborhood doesn't look the greatest but I didn't see anything going on that made me worry. I felt safe at the motel for sure. The room was very small (one queen that seemed more like a full) but it was very clean and the room appeared to have updated furniture and fixtures. They provide earplugs which I thought was cool and a great idea since there's a busy street outside. We were so tired we didn't need them. The parking situation is stressful. There is a tiny garage to use and has maybe 12 spaces is all. If they are full you have to park along side a wall or go out front of their building. The woman that checked us in was extremely rude. I'm so easy going and do not get easily upset but this woman had me heated. She cut me off and told me I could ask questions later. When she wrote down my car information and I attempted to give her my plate number, again she cut me off and told me she didn't need that and did I hear her ask me for that. She spoke to me with zero respect. I feel bad for someone who deals with her that is confused in the area or who needs something from her. I mentioned to someone else later in the evening about her but they shrugged their shoulders. Oh well. I paid $100 for the night; no bedbugs; and I woke up alive the next day with no harm to my vehicle. I'm happy with that!! Lol. MoreShow less</t>
+  </si>
+  <si>
+    <t>My 16 year old and I went to a Dodger game and needed a room for just the night. I wanted something close but obviously clean and safe. This motel is so close to Dodger Stadium that it took maybe 5 minutes to drive there. The neighborhood doesn't look the greatest but I didn't see anything going on that made me worry. I felt safe at the motel for sure. The room was very small (one queen that seemed more like a full) but it was very clean and the room appeared to have updated furniture and fixtures. They provide earplugs which I thought was cool and a great idea since there's a busy street outside. We were so tired we didn't need them. The parking situation is stressful. There is a tiny garage to use and has maybe 12 spaces is all. If they are full you have to park along side a wall or go out front of their building. The woman that checked us in was extremely rude. I'm so easy going and do not get easily upset but this woman had me heated. She cut me off and told me I could ask questions later. When she wrote down my car information and I attempted to give her my plate number, again she cut me off and told me she didn't need that and did I hear her ask me for that. She spoke to me...My 16 year old and I went to a Dodger game and needed a room for just the night. I wanted something close but obviously clean and safe. This motel is so close to Dodger Stadium that it took maybe 5 minutes to drive there. The neighborhood doesn't look the greatest but I didn't see anything going on that made me worry. I felt safe at the motel for sure. The room was very small (one queen that seemed more like a full) but it was very clean and the room appeared to have updated furniture and fixtures. They provide earplugs which I thought was cool and a great idea since there's a busy street outside. We were so tired we didn't need them. The parking situation is stressful. There is a tiny garage to use and has maybe 12 spaces is all. If they are full you have to park along side a wall or go out front of their building. The woman that checked us in was extremely rude. I'm so easy going and do not get easily upset but this woman had me heated. She cut me off and told me I could ask questions later. When she wrote down my car information and I attempted to give her my plate number, again she cut me off and told me she didn't need that and did I hear her ask me for that. She spoke to me with zero respect. I feel bad for someone who deals with her that is confused in the area or who needs something from her. I mentioned to someone else later in the evening about her but they shrugged their shoulders. Oh well. I paid $100 for the night; no bedbugs; and I woke up alive the next day with no harm to my vehicle. I'm happy with that!! Lol. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r349702234-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>349702234</t>
+  </si>
+  <si>
+    <t>02/21/2016</t>
+  </si>
+  <si>
+    <t>Kights Inn</t>
+  </si>
+  <si>
+    <t>This hotel is nothing to brag about.  It is old and not very good looking from the outside.  What it is, is clean and comfortable.  It has free parking, free internet, and free breakfast.  It is not fancy and does not have a fancy price.  The hotel is just outside the downtown area.  It is great if you just need a place to sleep. I would use this hotel again.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r344630842-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>344630842</t>
+  </si>
+  <si>
+    <t>02/02/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fare rate, not so bad, good location </t>
+  </si>
+  <si>
+    <t>We spend two nights there, is simple but is clean and safe, you can't ask more for the price. The best is the location and that the WiFi and parking lots are free.The breakfast is really simple and bad.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r339509036-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>339509036</t>
+  </si>
+  <si>
+    <t>01/12/2016</t>
+  </si>
+  <si>
+    <t>Rooms are nice friendly staff.... area not so desireable</t>
+  </si>
+  <si>
+    <t>If you want to be near the union station and the staples arena and are not looking to spend a whole lot this is your hotel, The staff was very nice, (they need to hire a new cab service though ) because they failed me big time on NYE.. They offer your standard continental breakfast, i was there 4 days and I wasn't offered any new towels or soaps but I did have my own, the metro bus is about a mile up the street, When i needed to cancel and go home 2 days early they did reimburse me, I liked the staff. the set up of the hotel is not usual but i guess that makes it unique. rooms were pretty clean, beds were kinda hard and remote tv was very slow. internet was good!!MoreShow less</t>
+  </si>
+  <si>
+    <t>If you want to be near the union station and the staples arena and are not looking to spend a whole lot this is your hotel, The staff was very nice, (they need to hire a new cab service though ) because they failed me big time on NYE.. They offer your standard continental breakfast, i was there 4 days and I wasn't offered any new towels or soaps but I did have my own, the metro bus is about a mile up the street, When i needed to cancel and go home 2 days early they did reimburse me, I liked the staff. the set up of the hotel is not usual but i guess that makes it unique. rooms were pretty clean, beds were kinda hard and remote tv was very slow. internet was good!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r328456581-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>328456581</t>
+  </si>
+  <si>
+    <t>11/22/2015</t>
+  </si>
+  <si>
+    <t>Barely acceptable</t>
+  </si>
+  <si>
+    <t>Arriving at this hotel, one gets the impression that it has been recently taken over by new owners. There are some attempts to upgrade and the front desk staff were courteous and friendly . The breakfast was acceptable, and as is usually the case offered on disposable dishes with disposable cutlery. There was no greeting by staff who were busy speaking with each other in their own language.This area was acceptable clean.There is no elevator to the level where the rooms are... a problem for those with heavy suitcases.The room we were given smelled extremely smokey in spite of a "non smoking room label on the door.The water was not very hot in the shower and the bathroom caulking was in a deplorable state .... the bathroom needed serious upgrading. The most worrying thing was that the rooms are literally open to the street with absolutely no security . The hotel is a hilly 2 miles from the train station, not close to union station as advertised. The hotel backs onto a freeway but was surprisingly quiet.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Arriving at this hotel, one gets the impression that it has been recently taken over by new owners. There are some attempts to upgrade and the front desk staff were courteous and friendly . The breakfast was acceptable, and as is usually the case offered on disposable dishes with disposable cutlery. There was no greeting by staff who were busy speaking with each other in their own language.This area was acceptable clean.There is no elevator to the level where the rooms are... a problem for those with heavy suitcases.The room we were given smelled extremely smokey in spite of a "non smoking room label on the door.The water was not very hot in the shower and the bathroom caulking was in a deplorable state .... the bathroom needed serious upgrading. The most worrying thing was that the rooms are literally open to the street with absolutely no security . The hotel is a hilly 2 miles from the train station, not close to union station as advertised. The hotel backs onto a freeway but was surprisingly quiet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r326116178-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>326116178</t>
+  </si>
+  <si>
+    <t>11/11/2015</t>
+  </si>
+  <si>
+    <t>Great for the price</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 nights while vendingStreet parking is not fun if you come after 10pmGood eats at bbq place close by.AC is loud to drown out the street noise.Bed is okShower pressure is actually really good.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r314895052-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>314895052</t>
+  </si>
+  <si>
+    <t>09/29/2015</t>
+  </si>
+  <si>
+    <t>Reasonable place</t>
+  </si>
+  <si>
+    <t>Air conditioning old and noisy. Simple breakfast included in the daily room rate. There is no touristic point near to, or any good restaurant, but the hotel provide free parking. Good and cheaper option to stay.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r285023320-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>285023320</t>
+  </si>
+  <si>
+    <t>07/02/2015</t>
+  </si>
+  <si>
+    <t>Great Motel at a Great Price!</t>
+  </si>
+  <si>
+    <t>Better than I expected. We had to book this motel the night before we left for LA because the Beverly Inn cancelled our reservation "by accident" and wouldn't reschedule us. I was worried that it would be a dump or be in a bad area of town. Once we got there we were very pleased with what we saw. Parking is in a small garage and we easily got a spot. Parking is ONLY for motel guests. We checked in and the woman up front was very nice and informative of the motel. We got little tickets for our breakfast each morning. I guess they have people coming in off the street trying to eat their breakfast. I wouldn't blame them, the breakfast was AMAZING. It was  a buffet but you had a lot to choose from. They always had an attendant there to take your breakfast tickets and make you fresh waffles if you wanted them. They had fresh fruit every morning and cereal and bagels and something that looked like angel food cake. Coffee milk and sunny D were available too. It was as nice little setup with a TV to watch the morning news on. You could even eat your breakfast out by the street if you wanted to. The motel is in a mexican community so there was a nice little spanish bakery across the street from the motel. The air conditioner worked well. We went...Better than I expected. We had to book this motel the night before we left for LA because the Beverly Inn cancelled our reservation "by accident" and wouldn't reschedule us. I was worried that it would be a dump or be in a bad area of town. Once we got there we were very pleased with what we saw. Parking is in a small garage and we easily got a spot. Parking is ONLY for motel guests. We checked in and the woman up front was very nice and informative of the motel. We got little tickets for our breakfast each morning. I guess they have people coming in off the street trying to eat their breakfast. I wouldn't blame them, the breakfast was AMAZING. It was  a buffet but you had a lot to choose from. They always had an attendant there to take your breakfast tickets and make you fresh waffles if you wanted them. They had fresh fruit every morning and cereal and bagels and something that looked like angel food cake. Coffee milk and sunny D were available too. It was as nice little setup with a TV to watch the morning news on. You could even eat your breakfast out by the street if you wanted to. The motel is in a mexican community so there was a nice little spanish bakery across the street from the motel. The air conditioner worked well. We went in the middle of May and had no trouble with being too hot in our room. We didn't spend a lot of time in the room because we went out during the day. The room was very clean every day and we got fresh towels everyday. I have no complaints about this motel. Beds were very comfortable. I slept well every night. The motel is located close to the highway but I couldn't hear the highway noise if the air was on it; it drowned the noise out. Overall this hotel was AWESOME and it was a great price too. I would totally recommend this place to anyone. It's close to the center of LA and its close to Chinatown.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Better than I expected. We had to book this motel the night before we left for LA because the Beverly Inn cancelled our reservation "by accident" and wouldn't reschedule us. I was worried that it would be a dump or be in a bad area of town. Once we got there we were very pleased with what we saw. Parking is in a small garage and we easily got a spot. Parking is ONLY for motel guests. We checked in and the woman up front was very nice and informative of the motel. We got little tickets for our breakfast each morning. I guess they have people coming in off the street trying to eat their breakfast. I wouldn't blame them, the breakfast was AMAZING. It was  a buffet but you had a lot to choose from. They always had an attendant there to take your breakfast tickets and make you fresh waffles if you wanted them. They had fresh fruit every morning and cereal and bagels and something that looked like angel food cake. Coffee milk and sunny D were available too. It was as nice little setup with a TV to watch the morning news on. You could even eat your breakfast out by the street if you wanted to. The motel is in a mexican community so there was a nice little spanish bakery across the street from the motel. The air conditioner worked well. We went...Better than I expected. We had to book this motel the night before we left for LA because the Beverly Inn cancelled our reservation "by accident" and wouldn't reschedule us. I was worried that it would be a dump or be in a bad area of town. Once we got there we were very pleased with what we saw. Parking is in a small garage and we easily got a spot. Parking is ONLY for motel guests. We checked in and the woman up front was very nice and informative of the motel. We got little tickets for our breakfast each morning. I guess they have people coming in off the street trying to eat their breakfast. I wouldn't blame them, the breakfast was AMAZING. It was  a buffet but you had a lot to choose from. They always had an attendant there to take your breakfast tickets and make you fresh waffles if you wanted them. They had fresh fruit every morning and cereal and bagels and something that looked like angel food cake. Coffee milk and sunny D were available too. It was as nice little setup with a TV to watch the morning news on. You could even eat your breakfast out by the street if you wanted to. The motel is in a mexican community so there was a nice little spanish bakery across the street from the motel. The air conditioner worked well. We went in the middle of May and had no trouble with being too hot in our room. We didn't spend a lot of time in the room because we went out during the day. The room was very clean every day and we got fresh towels everyday. I have no complaints about this motel. Beds were very comfortable. I slept well every night. The motel is located close to the highway but I couldn't hear the highway noise if the air was on it; it drowned the noise out. Overall this hotel was AWESOME and it was a great price too. I would totally recommend this place to anyone. It's close to the center of LA and its close to Chinatown.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r272642354-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>272642354</t>
+  </si>
+  <si>
+    <t>05/17/2015</t>
+  </si>
+  <si>
+    <t>A good hotel in downtown LA</t>
+  </si>
+  <si>
+    <t>I have been able to do a lot of traveling and have stayed in many hotel. The Knights Inn was very comfortable with big beds,clean and safe and very attentive service by the staff. Breakfast was fresh each day and plentiful. The front desk staff was attentiveand very helpful to direct me to all the places I was interested in visiting. When I visit LA again this year I will choose the Knights Inn again</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r272357067-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>272357067</t>
+  </si>
+  <si>
+    <t>05/16/2015</t>
+  </si>
+  <si>
+    <t>The best hotel for my trip</t>
+  </si>
+  <si>
+    <t>A month ago, I made a trip to Los Angeles for a vacation that was unforgettable.    I chose to stay at the hotel Knights Inn and I can say  that I   made the best choice.   The hotel is located  in downtown Los Angeles.   Upon arrival at the hotel,I was immediately impressed with the upgraded exterior.It showed me they care about the appearance of their property.  I was greeted immediately by Adriana who was absolutely wonderful and helpful to me.  I am originally from Romania but I live in Tenerife,Canary Islands. It was my second trip to the United States but, the first trip by myself and they made me feel so very comfortable, welcome and safe.  The customer service I received was just exceptional. Emerson, Adriana and Norma, the head of housekeeping also makes the best homemade waffles I ever had!. The room was incredible for the price...I thought I was in the downtown Ritz Carlton!!  The room was newly remodeled, with direct TV, huge comfortable bed...very tastefully appointed room...and so very clean,with WIFI Free, Breakfast for my taste.Next time when  I come back to Los Angeles, I will not stay anywhere else and  I will choose this excellent hotel. I recommend the Knights Inn to any traveler coming to Los Angeles.    MARY CUCU,TENERIFE,CANARY ISLANDS,SPAINMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>A month ago, I made a trip to Los Angeles for a vacation that was unforgettable.    I chose to stay at the hotel Knights Inn and I can say  that I   made the best choice.   The hotel is located  in downtown Los Angeles.   Upon arrival at the hotel,I was immediately impressed with the upgraded exterior.It showed me they care about the appearance of their property.  I was greeted immediately by Adriana who was absolutely wonderful and helpful to me.  I am originally from Romania but I live in Tenerife,Canary Islands. It was my second trip to the United States but, the first trip by myself and they made me feel so very comfortable, welcome and safe.  The customer service I received was just exceptional. Emerson, Adriana and Norma, the head of housekeeping also makes the best homemade waffles I ever had!. The room was incredible for the price...I thought I was in the downtown Ritz Carlton!!  The room was newly remodeled, with direct TV, huge comfortable bed...very tastefully appointed room...and so very clean,with WIFI Free, Breakfast for my taste.Next time when  I come back to Los Angeles, I will not stay anywhere else and  I will choose this excellent hotel. I recommend the Knights Inn to any traveler coming to Los Angeles.    MARY CUCU,TENERIFE,CANARY ISLANDS,SPAINMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r266722055-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>266722055</t>
+  </si>
+  <si>
+    <t>04/19/2015</t>
+  </si>
+  <si>
+    <t>Terrible Management</t>
+  </si>
+  <si>
+    <t>We made a reservation 2 weeks prior to arriving to this hotel. The day we reserved the room I had faxed over our voucher with a call confirming they had received it for our discount. When we arrived, however, the manager "couldn't" give the discount to us and he couldn't find our voucher. I then stated "If we cancel, I expect a full refund." He said that I would need to go online or call customer care to cancel. While I was on the phone with a man from the customer care line to see what we could do about our discount, he let me know that our reservation had already been canceled? "So the manager canceled our reservation without us telling him to and after he said he couldn't? Where are we going to stay? It's 4 pm on a Saturday in LA with a home Dodgers game that we are about to be late to?!" The man then urged us to file a report. We then luckily found a different hotel with 2 rooms left. The management is a joke and I would never recommend this place to anyone.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Charles W, Guest Relations Manager at Knights Inn Los Angeles Central/Convention Center Area, responded to this reviewResponded April 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2015</t>
+  </si>
+  <si>
+    <t>We made a reservation 2 weeks prior to arriving to this hotel. The day we reserved the room I had faxed over our voucher with a call confirming they had received it for our discount. When we arrived, however, the manager "couldn't" give the discount to us and he couldn't find our voucher. I then stated "If we cancel, I expect a full refund." He said that I would need to go online or call customer care to cancel. While I was on the phone with a man from the customer care line to see what we could do about our discount, he let me know that our reservation had already been canceled? "So the manager canceled our reservation without us telling him to and after he said he couldn't? Where are we going to stay? It's 4 pm on a Saturday in LA with a home Dodgers game that we are about to be late to?!" The man then urged us to file a report. We then luckily found a different hotel with 2 rooms left. The management is a joke and I would never recommend this place to anyone.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r263260363-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>263260363</t>
+  </si>
+  <si>
+    <t>04/02/2015</t>
+  </si>
+  <si>
+    <t>Beware of This Place!</t>
+  </si>
+  <si>
+    <t>Payed $124 for one night. Which from what I have read is about double what they usually charge! This place is rundown and poorly maintained. The bathroom is falling apart.  My room had the sounds, smells and views of the Los Angeles Harbor Freeway which prevented me from sleeping. After check out, was hit with a fraudulent $250 additional charge to my card.  When I called to inquire, they said the housekeeper smelled smoke.  No one had smoked during our stay.  They refused to handle the matter appropriately.  The clerk, Rachel was rude and unprofessional. So now I get to file a small claims case simply because I chose this shady establishment to sleep that night.   My advice is don't waste your time here.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Payed $124 for one night. Which from what I have read is about double what they usually charge! This place is rundown and poorly maintained. The bathroom is falling apart.  My room had the sounds, smells and views of the Los Angeles Harbor Freeway which prevented me from sleeping. After check out, was hit with a fraudulent $250 additional charge to my card.  When I called to inquire, they said the housekeeper smelled smoke.  No one had smoked during our stay.  They refused to handle the matter appropriately.  The clerk, Rachel was rude and unprofessional. So now I get to file a small claims case simply because I chose this shady establishment to sleep that night.   My advice is don't waste your time here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r261886029-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>261886029</t>
+  </si>
+  <si>
+    <t>03/26/2015</t>
+  </si>
+  <si>
+    <t>Great Location, No Comfort</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel because of the fair reviews. Great location in LA is always a plus right?  At time of check in, I found the staff unprofessional, dressed on their own style with no badges.  Lady at front desk, named Rachel  did not have  a friendly greeting and all desk was pretty messy. In other words, I did not have a comfortable encounter on my first check in. My room was outdated.  There were red curtains that looked like from the 70's and not dusted.  My room was not vacuumed well and floors on restrooms were dirty and cracking.  I stayed at this hotel  for two nights!!   I also found stains on the white bed sheets.  The staff did say they were renovating rooms, but as I walked around, I saw many rooms looking outdated. I went out a lot with family, but coming back to my room was not something I looked forward to.  I tried to call on the phone to contact my family and my phone did not work.  I was not able to contact other rooms or even the front desk.  I asked the front desk staff why the phones were not working and she said she does not know.  The same person that checked me in first time.  It was really inconvenient to walk down the hallway  and knock at my family's door every time. At night I heard every buses, cops, motorcycle...I stayed in this hotel because of the fair reviews. Great location in LA is always a plus right?  At time of check in, I found the staff unprofessional, dressed on their own style with no badges.  Lady at front desk, named Rachel  did not have  a friendly greeting and all desk was pretty messy. In other words, I did not have a comfortable encounter on my first check in. My room was outdated.  There were red curtains that looked like from the 70's and not dusted.  My room was not vacuumed well and floors on restrooms were dirty and cracking.  I stayed at this hotel  for two nights!!   I also found stains on the white bed sheets.  The staff did say they were renovating rooms, but as I walked around, I saw many rooms looking outdated. I went out a lot with family, but coming back to my room was not something I looked forward to.  I tried to call on the phone to contact my family and my phone did not work.  I was not able to contact other rooms or even the front desk.  I asked the front desk staff why the phones were not working and she said she does not know.  The same person that checked me in first time.  It was really inconvenient to walk down the hallway  and knock at my family's door every time. At night I heard every buses, cops, motorcycle that passed by. I had to turn on the A/C all the time so not to hear noises. The bath amenities were really below average.  I would advise highly to bring your own bath amenities.  The continental breakfast was really below average.  They serve 3 types of cereal and a waffle, with beverages.  Two staff stood around, and they just stood around!  You have to literally talk to them to ask for creamer or orange juice and for them to make the waffles.  The creamer can be found on a small fridge that was not visible when you first walk in the restaurant.  There were only 4 tables inside which sits 4 people average. Finding a seat was like a contest.  I came to this hotel because of budget, but also wanted a good location.  I do not think I will be back to stay again at this hotel even though they are priced not that cheap.  Parking is free though and location is near downtown LA.  Just make sure you have a car to stay at this hotel.  Neighborhood is average but try not to walk at nightMoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel because of the fair reviews. Great location in LA is always a plus right?  At time of check in, I found the staff unprofessional, dressed on their own style with no badges.  Lady at front desk, named Rachel  did not have  a friendly greeting and all desk was pretty messy. In other words, I did not have a comfortable encounter on my first check in. My room was outdated.  There were red curtains that looked like from the 70's and not dusted.  My room was not vacuumed well and floors on restrooms were dirty and cracking.  I stayed at this hotel  for two nights!!   I also found stains on the white bed sheets.  The staff did say they were renovating rooms, but as I walked around, I saw many rooms looking outdated. I went out a lot with family, but coming back to my room was not something I looked forward to.  I tried to call on the phone to contact my family and my phone did not work.  I was not able to contact other rooms or even the front desk.  I asked the front desk staff why the phones were not working and she said she does not know.  The same person that checked me in first time.  It was really inconvenient to walk down the hallway  and knock at my family's door every time. At night I heard every buses, cops, motorcycle...I stayed in this hotel because of the fair reviews. Great location in LA is always a plus right?  At time of check in, I found the staff unprofessional, dressed on their own style with no badges.  Lady at front desk, named Rachel  did not have  a friendly greeting and all desk was pretty messy. In other words, I did not have a comfortable encounter on my first check in. My room was outdated.  There were red curtains that looked like from the 70's and not dusted.  My room was not vacuumed well and floors on restrooms were dirty and cracking.  I stayed at this hotel  for two nights!!   I also found stains on the white bed sheets.  The staff did say they were renovating rooms, but as I walked around, I saw many rooms looking outdated. I went out a lot with family, but coming back to my room was not something I looked forward to.  I tried to call on the phone to contact my family and my phone did not work.  I was not able to contact other rooms or even the front desk.  I asked the front desk staff why the phones were not working and she said she does not know.  The same person that checked me in first time.  It was really inconvenient to walk down the hallway  and knock at my family's door every time. At night I heard every buses, cops, motorcycle that passed by. I had to turn on the A/C all the time so not to hear noises. The bath amenities were really below average.  I would advise highly to bring your own bath amenities.  The continental breakfast was really below average.  They serve 3 types of cereal and a waffle, with beverages.  Two staff stood around, and they just stood around!  You have to literally talk to them to ask for creamer or orange juice and for them to make the waffles.  The creamer can be found on a small fridge that was not visible when you first walk in the restaurant.  There were only 4 tables inside which sits 4 people average. Finding a seat was like a contest.  I came to this hotel because of budget, but also wanted a good location.  I do not think I will be back to stay again at this hotel even though they are priced not that cheap.  Parking is free though and location is near downtown LA.  Just make sure you have a car to stay at this hotel.  Neighborhood is average but try not to walk at nightMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r238028575-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>238028575</t>
+  </si>
+  <si>
+    <t>11/04/2014</t>
+  </si>
+  <si>
+    <t>Good choice</t>
+  </si>
+  <si>
+    <t>This was more or less as good as another neaby motel which is my favourite. Very clean, well-decorated, comfortable, private, and breakfast is included. The room facilities included fridge, coffee machine, iron and ironing board, and a good aircon. The only thing missing was a security box. We had a room that overlooked a main road, so there was some noise from the traffic, but closing the window (and turning on the aircon) helped have a good night's sleep. Across the road there is a Mexican bakery which makes tasty bread and various types of cornettos/pastries. Keep in mind, however, that Downtown LA, while beautifully art deco, is also pretty run down and the police seems to be concentrating the city's homeless population there. This can feel a bit intense (and depressing), particularly at night, so if you go make sure you don't look too much like a target. This motel was in relatively safe distance from all this, although not too far. Generally a good base from which to see LA.MoreShow less</t>
+  </si>
+  <si>
+    <t>Charles W, Guest Relations Manager at Knights Inn Los Angeles Central/Convention Center Area, responded to this reviewResponded November 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2014</t>
+  </si>
+  <si>
+    <t>This was more or less as good as another neaby motel which is my favourite. Very clean, well-decorated, comfortable, private, and breakfast is included. The room facilities included fridge, coffee machine, iron and ironing board, and a good aircon. The only thing missing was a security box. We had a room that overlooked a main road, so there was some noise from the traffic, but closing the window (and turning on the aircon) helped have a good night's sleep. Across the road there is a Mexican bakery which makes tasty bread and various types of cornettos/pastries. Keep in mind, however, that Downtown LA, while beautifully art deco, is also pretty run down and the police seems to be concentrating the city's homeless population there. This can feel a bit intense (and depressing), particularly at night, so if you go make sure you don't look too much like a target. This motel was in relatively safe distance from all this, although not too far. Generally a good base from which to see LA.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r234937526-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>234937526</t>
+  </si>
+  <si>
+    <t>10/17/2014</t>
+  </si>
+  <si>
+    <t>Didn't know what to expect....</t>
+  </si>
+  <si>
+    <t>We booked this hotel online the night before as it looked pretty decent and inexpensive, but mainly because trivago claimed it was within 1 mile of Universal studios.... Not so!!  Anyhow, we booked 2 rooms and when we arrived all was ok, clean and tidy, but the sliding doors opened onto a concrete "porch about 6'x3' with a 9 foot wall surrounding It?! Anyway, the restaurant next door was ok-ish and the liquor store across the street did what it said on the label, so, all in all, an average stay with an average nights sleep.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r224931172-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>224931172</t>
+  </si>
+  <si>
+    <t>08/27/2014</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r214393912-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>214393912</t>
+  </si>
+  <si>
+    <t>07/08/2014</t>
+  </si>
+  <si>
+    <t>It's a no-frills hotel</t>
+  </si>
+  <si>
+    <t>If you're looking for a fairly cheap place to stay in LA, then this is for you. It's in a pretty dodgy part of LA (temple street), and the hotel is surrounded by barbed wire on each side. The neighborhood is also a bit lacking in restaurants. The front desk was nice, and there is free breakfast included, which has your basics (waffles, cereal, fruit), though the fruit was borderline frozen one of the days we had breakfast. The hotel also provides free wifi but it is horrifically slow.The rooms are decent, nothing fancy but nothing terrible either. I can't think of a single thing that made them stand out, good or bad. If you're trying to find a cheap place to stay in LA then this is for you, if you want an area with more nightlife and attractions, then look somewhere else. BTW, the bakery across the street provides good breakfast and juice.P.S. Even though it says convention center on the hotel, the only way to access the convention center quickly is through a cab or uber. Public transit/walking will take you a while.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Charles W, Guest Relations Manager at Knights Inn Los Angeles Central/Convention Center Area, responded to this reviewResponded July 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2014</t>
+  </si>
+  <si>
+    <t>If you're looking for a fairly cheap place to stay in LA, then this is for you. It's in a pretty dodgy part of LA (temple street), and the hotel is surrounded by barbed wire on each side. The neighborhood is also a bit lacking in restaurants. The front desk was nice, and there is free breakfast included, which has your basics (waffles, cereal, fruit), though the fruit was borderline frozen one of the days we had breakfast. The hotel also provides free wifi but it is horrifically slow.The rooms are decent, nothing fancy but nothing terrible either. I can't think of a single thing that made them stand out, good or bad. If you're trying to find a cheap place to stay in LA then this is for you, if you want an area with more nightlife and attractions, then look somewhere else. BTW, the bakery across the street provides good breakfast and juice.P.S. Even though it says convention center on the hotel, the only way to access the convention center quickly is through a cab or uber. Public transit/walking will take you a while.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r208389630-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>208389630</t>
+  </si>
+  <si>
+    <t>06/01/2014</t>
+  </si>
+  <si>
+    <t>You get what you pay for</t>
+  </si>
+  <si>
+    <t>My boyfriend and I stayed here for the May 24 long weekend because this was the most decent hotel we could find for our budget. Couple of things to note here before you book this hotel: 
+-it is located in downtown LA which can be pretty sketchy. I would never stay here if I was traveling solo or just with girlfriends. It doesn't feel so safe at night (or even during day!), there are homeless people everywhere in the streets around. 
+-it's in a quiet street with just a corner store/liqueur store across the street. No nearby restaurants or things  
+-it is pretty close with a cab to staples centre so if I were there to watch a game I would stay at this hotel for the price. 
+-it is close to Union station, centre bus station of the city, which means you can get anywhere from there.
+-best way to get here/to from the airport is taking the Flyaway shuttle for $8.00 to union station and cab it to the hotel for another $6-8 
+-there is free breakfast everyday which is nothing glamorous but it saves you in the morning since there isn't any other close place to grab a quick bite. The waffles were good with fruits and maple syrup on top. 
+-the staff at the front desk were all very nice and helpful.
+-the room was clean 
+-we stayed in room 119 I think and our balcony...My boyfriend and I stayed here for the May 24 long weekend because this was the most decent hotel we could find for our budget. Couple of things to note here before you book this hotel: -it is located in downtown LA which can be pretty sketchy. I would never stay here if I was traveling solo or just with girlfriends. It doesn't feel so safe at night (or even during day!), there are homeless people everywhere in the streets around. -it's in a quiet street with just a corner store/liqueur store across the street. No nearby restaurants or things  -it is pretty close with a cab to staples centre so if I were there to watch a game I would stay at this hotel for the price. -it is close to Union station, centre bus station of the city, which means you can get anywhere from there.-best way to get here/to from the airport is taking the Flyaway shuttle for $8.00 to union station and cab it to the hotel for another $6-8 -there is free breakfast everyday which is nothing glamorous but it saves you in the morning since there isn't any other close place to grab a quick bite. The waffles were good with fruits and maple syrup on top. -the staff at the front desk were all very nice and helpful.-the room was clean -we stayed in room 119 I think and our balcony view was the sky! The balcony was basically digged in the ground! Overall, it is a very budget hotel but  the staff try their best to make everyone's stay pleasant. The area was the reason why my stay in LA wasn't so pleasant. Other than that, the hotel is fine. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>My boyfriend and I stayed here for the May 24 long weekend because this was the most decent hotel we could find for our budget. Couple of things to note here before you book this hotel: 
+-it is located in downtown LA which can be pretty sketchy. I would never stay here if I was traveling solo or just with girlfriends. It doesn't feel so safe at night (or even during day!), there are homeless people everywhere in the streets around. 
+-it's in a quiet street with just a corner store/liqueur store across the street. No nearby restaurants or things  
+-it is pretty close with a cab to staples centre so if I were there to watch a game I would stay at this hotel for the price. 
+-it is close to Union station, centre bus station of the city, which means you can get anywhere from there.
+-best way to get here/to from the airport is taking the Flyaway shuttle for $8.00 to union station and cab it to the hotel for another $6-8 
+-there is free breakfast everyday which is nothing glamorous but it saves you in the morning since there isn't any other close place to grab a quick bite. The waffles were good with fruits and maple syrup on top. 
+-the staff at the front desk were all very nice and helpful.
+-the room was clean 
+-we stayed in room 119 I think and our balcony...My boyfriend and I stayed here for the May 24 long weekend because this was the most decent hotel we could find for our budget. Couple of things to note here before you book this hotel: -it is located in downtown LA which can be pretty sketchy. I would never stay here if I was traveling solo or just with girlfriends. It doesn't feel so safe at night (or even during day!), there are homeless people everywhere in the streets around. -it's in a quiet street with just a corner store/liqueur store across the street. No nearby restaurants or things  -it is pretty close with a cab to staples centre so if I were there to watch a game I would stay at this hotel for the price. -it is close to Union station, centre bus station of the city, which means you can get anywhere from there.-best way to get here/to from the airport is taking the Flyaway shuttle for $8.00 to union station and cab it to the hotel for another $6-8 -there is free breakfast everyday which is nothing glamorous but it saves you in the morning since there isn't any other close place to grab a quick bite. The waffles were good with fruits and maple syrup on top. -the staff at the front desk were all very nice and helpful.-the room was clean -we stayed in room 119 I think and our balcony view was the sky! The balcony was basically digged in the ground! Overall, it is a very budget hotel but  the staff try their best to make everyone's stay pleasant. The area was the reason why my stay in LA wasn't so pleasant. Other than that, the hotel is fine. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r207003997-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>207003997</t>
+  </si>
+  <si>
+    <t>05/25/2014</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r200119008-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>200119008</t>
+  </si>
+  <si>
+    <t>04/06/2014</t>
+  </si>
+  <si>
+    <t>Clean budget room near downtown</t>
+  </si>
+  <si>
+    <t>I have mixed feelings about this property.  If you are looking for an affordable room very close to downtown, then this might be what you are looking for.  Our room appeared to have been updated recently and was very large and quite nice. Additionally, both clerks that we met were very kind and friendly.  That said, our room faced the street and we were bombarded with sound throughout the night.  The property also has more rooms than parking spots, so if you return to your room after a night out, you will probably end up having to park on the street.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Charles W, Guest Relations Manager at Knights Inn Los Angeles Central/Convention Center Area, responded to this reviewResponded April 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 8, 2014</t>
+  </si>
+  <si>
+    <t>I have mixed feelings about this property.  If you are looking for an affordable room very close to downtown, then this might be what you are looking for.  Our room appeared to have been updated recently and was very large and quite nice. Additionally, both clerks that we met were very kind and friendly.  That said, our room faced the street and we were bombarded with sound throughout the night.  The property also has more rooms than parking spots, so if you return to your room after a night out, you will probably end up having to park on the street.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r199147781-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>199147781</t>
+  </si>
+  <si>
+    <t>03/29/2014</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r196573121-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>196573121</t>
+  </si>
+  <si>
+    <t>03/07/2014</t>
+  </si>
+  <si>
+    <t>Home away form home</t>
+  </si>
+  <si>
+    <t>I am staying at the knights in on Temple St. The staff is very friendly, the manager treats his customers as if they were family. The rooms are very clean. I greatly appreciate the breakfast bar every morning. love those waffles. I would recommmend the knights inn to anyone that enjoys kind coutious people. George, the manager, makes it a point to ensure that all of his people are well taken care of. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Charles W, Guest Relations Manager at Knights Inn Los Angeles Central/Convention Center Area, responded to this reviewResponded March 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2014</t>
+  </si>
+  <si>
+    <t>I am staying at the knights in on Temple St. The staff is very friendly, the manager treats his customers as if they were family. The rooms are very clean. I greatly appreciate the breakfast bar every morning. love those waffles. I would recommmend the knights inn to anyone that enjoys kind coutious people. George, the manager, makes it a point to ensure that all of his people are well taken care of. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r189821359-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>189821359</t>
+  </si>
+  <si>
+    <t>01/05/2014</t>
+  </si>
+  <si>
+    <t>Really a nice place and good service ask for George he is really nice guy and helpful. The internet there is perfect, hotel in the middle of the town for it is reachable.The tip for you is George and the team....a very friendly atmosphere, they will guide you thru LA  and  u will. Feel like home, they want nothing but to make sure u r served right and that you enjoy the placeMoreShow less</t>
+  </si>
+  <si>
+    <t>Charles W, Guest Relations Manager at Knights Inn Los Angeles Central/Convention Center Area, responded to this reviewResponded January 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 7, 2014</t>
+  </si>
+  <si>
+    <t>Really a nice place and good service ask for George he is really nice guy and helpful. The internet there is perfect, hotel in the middle of the town for it is reachable.The tip for you is George and the team....a very friendly atmosphere, they will guide you thru LA  and  u will. Feel like home, they want nothing but to make sure u r served right and that you enjoy the placeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r187341019-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>187341019</t>
+  </si>
+  <si>
+    <t>12/11/2013</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>We were on our last leg of our honeymoon and just wanted something affordale and cosy.George was amazing and kind, Recommeding place to go and things to see. The rooms were tidy and a good size , We stayed for around 5 nights and had no problems at all the bus is right out front which saves on hiring a car.we would stay again if we were ever to go back to la.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Charles W, Guest Relations Manager at Knights Inn Los Angeles Central/Convention Center Area, responded to this reviewResponded December 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 12, 2013</t>
+  </si>
+  <si>
+    <t>We were on our last leg of our honeymoon and just wanted something affordale and cosy.George was amazing and kind, Recommeding place to go and things to see. The rooms were tidy and a good size , We stayed for around 5 nights and had no problems at all the bus is right out front which saves on hiring a car.we would stay again if we were ever to go back to la.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r187241070-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>187241070</t>
+  </si>
+  <si>
+    <t>12/09/2013</t>
+  </si>
+  <si>
+    <t>Great Value for Money</t>
+  </si>
+  <si>
+    <t>Had a great stay here towards the end of my USA adventures.  George was amazingly friendly and unbelievably helpful in helping me get the best out of my stay in LA.  The rooms were nice, tidy and freshly painted.  Just amazing value for money. I would stay there again in a heartbeat.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r180609932-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>180609932</t>
+  </si>
+  <si>
+    <t>10/11/2013</t>
+  </si>
+  <si>
+    <t>Close to downtown LA</t>
+  </si>
+  <si>
+    <t>I stayed at this place for a week for work because it was close to downtown LA without being crazy expensive. Although the building looks a little old from the outside, it was well kept on the inside, very clean, and was quiet, which is important for me since I am a very light sleeper. I was weary about all the reviews I had read regarding the area, but I had no issues getting around to and from downtown LA and going to the stores and restaurants around at night, all on foot.Probably the best thing about this hotel though is the staff. George (the manager) has a well deserved reputation of being a very good host and was able to accommodate some of the needs I had, being there on business. Will definitely stay at again the next time I go to the area, for business or pleasure.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>I stayed at this place for a week for work because it was close to downtown LA without being crazy expensive. Although the building looks a little old from the outside, it was well kept on the inside, very clean, and was quiet, which is important for me since I am a very light sleeper. I was weary about all the reviews I had read regarding the area, but I had no issues getting around to and from downtown LA and going to the stores and restaurants around at night, all on foot.Probably the best thing about this hotel though is the staff. George (the manager) has a well deserved reputation of being a very good host and was able to accommodate some of the needs I had, being there on business. Will definitely stay at again the next time I go to the area, for business or pleasure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r180115036-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>180115036</t>
+  </si>
+  <si>
+    <t>10/07/2013</t>
+  </si>
+  <si>
+    <t>Great place to stay for a dodgers game</t>
+  </si>
+  <si>
+    <t>This place is great, the owner George is awesome, went out of his way to make sure we had a great stay, great waffles for breakfast for free, great tacos across street at bakery, and the rooms are nice, free parking garage, and wifi. Awesome staff recommend staying here when in town for dodgers game , 1 mile from stadium.MoreShow less</t>
+  </si>
+  <si>
+    <t>Charles W, Guest Relations Manager at Knights Inn Los Angeles Central/Convention Center Area, responded to this reviewResponded October 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2013</t>
+  </si>
+  <si>
+    <t>This place is great, the owner George is awesome, went out of his way to make sure we had a great stay, great waffles for breakfast for free, great tacos across street at bakery, and the rooms are nice, free parking garage, and wifi. Awesome staff recommend staying here when in town for dodgers game , 1 mile from stadium.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r179764662-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>179764662</t>
+  </si>
+  <si>
+    <t>10/04/2013</t>
+  </si>
+  <si>
+    <t>Caution</t>
+  </si>
+  <si>
+    <t>First time staying at a Knights in property...booked because of Wyndham loyalty program. I am flexible in my lodging choices, with two (1) prerequisites: 1) safety and  2) cleanliness. The property is in a marginal area and is undergoing a renovation...not a pretty sight on the exterior. In fact, if I were more familiar with Los Angeles and knew of other options in the area, I wouldn't have gone in. Before checking in I opted to check out one of the rooms. I found the room to be clean and it was apparent that it had undergone a recent renovation. I found the renovation to be adequate for a property at Knight's Inn price point. However,  I was taken aback by the manager's response, when I asked about security. He responded that gangs were about three (3) blocks away and said that if you didn't confront them, one shouldn't have a problem. As a lone traveler, his comments didn't make me feel warm, fuzzy or safe.  Generally, I opt for high level floors and will not stay at ground level, for security reasons. But, this property only has one level.  I ended up staying at the property for several days, but only spent about three (3) hours there. I wouldn't return. If you are a lone traveler, particularly if you do not have a car, I would recommend coming and going only during daylight hours.MoreShow less</t>
+  </si>
+  <si>
+    <t>Charles W, Guest Relations Manager at Knights Inn Los Angeles Central/Convention Center Area, responded to this reviewResponded October 7, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 7, 2013</t>
+  </si>
+  <si>
+    <t>First time staying at a Knights in property...booked because of Wyndham loyalty program. I am flexible in my lodging choices, with two (1) prerequisites: 1) safety and  2) cleanliness. The property is in a marginal area and is undergoing a renovation...not a pretty sight on the exterior. In fact, if I were more familiar with Los Angeles and knew of other options in the area, I wouldn't have gone in. Before checking in I opted to check out one of the rooms. I found the room to be clean and it was apparent that it had undergone a recent renovation. I found the renovation to be adequate for a property at Knight's Inn price point. However,  I was taken aback by the manager's response, when I asked about security. He responded that gangs were about three (3) blocks away and said that if you didn't confront them, one shouldn't have a problem. As a lone traveler, his comments didn't make me feel warm, fuzzy or safe.  Generally, I opt for high level floors and will not stay at ground level, for security reasons. But, this property only has one level.  I ended up staying at the property for several days, but only spent about three (3) hours there. I wouldn't return. If you are a lone traveler, particularly if you do not have a car, I would recommend coming and going only during daylight hours.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r176380867-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>176380867</t>
+  </si>
+  <si>
+    <t>09/08/2013</t>
+  </si>
+  <si>
+    <t>Go Dodgers</t>
+  </si>
+  <si>
+    <t>This hotel is a hidden treasure. Only 1 mile for Dodger stadium the rooms are clean and refurbished. Direct tv with over 300 channels, free breakfast, free secure underground parking and most of all the BBQ restaurant on site The Parks Finest... Wow. I paid less than hundred dollars and had a pleasant two day stay. The staff of the hotel are great and very knowledgable about the local area. Don't miss the Walt Disney Concert hall and the fashion district. Thanks and see you soon.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Charles W, Guest Relations Manager at Knights Inn Los Angeles Central/Convention Center Area, responded to this reviewResponded September 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2013</t>
+  </si>
+  <si>
+    <t>This hotel is a hidden treasure. Only 1 mile for Dodger stadium the rooms are clean and refurbished. Direct tv with over 300 channels, free breakfast, free secure underground parking and most of all the BBQ restaurant on site The Parks Finest... Wow. I paid less than hundred dollars and had a pleasant two day stay. The staff of the hotel are great and very knowledgable about the local area. Don't miss the Walt Disney Concert hall and the fashion district. Thanks and see you soon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r169551324-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>169551324</t>
+  </si>
+  <si>
+    <t>07/28/2013</t>
+  </si>
+  <si>
+    <t>We arrived here after driving from San Francisco, so it was quite late. Lady at check in was very friendly and helpful, gave us all the info we needed. The room was great, newly decorated and the most comfortable bed we've slept on in a hotel for some time at this price range. Nice big LCD tv on the wall and good wifi coverage
+This was a fair distance from Disneyland and your usual LA attractions, but close if you are working in the CBD. There is also a bus stop across the street for those without a vehicle.Breakfast was basic but a nice waffle to go with it and we always filled up on this. Hardly needing any lunch which saved us time and money.
+The only down side to this hotel was the fact that parking was a little scarce, one night we arrived late after seeing the fireworks at Disneyland and there were only 2 car parks left 1 was too small for our car and the other we couldn't fit as someone had parked over the line. We asked the man at the counter if we could park up against the brick wall for the night, he said no and didn't offer any alternative and couldn't even tell us the rules about parking on the street. so we had to park on the street which was free overnight and then a 1 hour limit from 8am...We arrived here after driving from San Francisco, so it was quite late. Lady at check in was very friendly and helpful, gave us all the info we needed. The room was great, newly decorated and the most comfortable bed we've slept on in a hotel for some time at this price range. Nice big LCD tv on the wall and good wifi coverageThis was a fair distance from Disneyland and your usual LA attractions, but close if you are working in the CBD. There is also a bus stop across the street for those without a vehicle.Breakfast was basic but a nice waffle to go with it and we always filled up on this. Hardly needing any lunch which saved us time and money.The only down side to this hotel was the fact that parking was a little scarce, one night we arrived late after seeing the fireworks at Disneyland and there were only 2 car parks left 1 was too small for our car and the other we couldn't fit as someone had parked over the line. We asked the man at the counter if we could park up against the brick wall for the night, he said no and didn't offer any alternative and couldn't even tell us the rules about parking on the street. so we had to park on the street which was free overnight and then a 1 hour limit from 8am which was a slight pain as we were hoping for a sleep in. To rub salt in the wound 2 days later we found 2 cars parked against the brick wall.To sum it up, it was very nice, very clean. Just a minor let down with the parking.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Charles W, Guest Relations Manager at Knights Inn Los Angeles Central/Convention Center Area, responded to this reviewResponded July 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2013</t>
+  </si>
+  <si>
+    <t>We arrived here after driving from San Francisco, so it was quite late. Lady at check in was very friendly and helpful, gave us all the info we needed. The room was great, newly decorated and the most comfortable bed we've slept on in a hotel for some time at this price range. Nice big LCD tv on the wall and good wifi coverage
+This was a fair distance from Disneyland and your usual LA attractions, but close if you are working in the CBD. There is also a bus stop across the street for those without a vehicle.Breakfast was basic but a nice waffle to go with it and we always filled up on this. Hardly needing any lunch which saved us time and money.
+The only down side to this hotel was the fact that parking was a little scarce, one night we arrived late after seeing the fireworks at Disneyland and there were only 2 car parks left 1 was too small for our car and the other we couldn't fit as someone had parked over the line. We asked the man at the counter if we could park up against the brick wall for the night, he said no and didn't offer any alternative and couldn't even tell us the rules about parking on the street. so we had to park on the street which was free overnight and then a 1 hour limit from 8am...We arrived here after driving from San Francisco, so it was quite late. Lady at check in was very friendly and helpful, gave us all the info we needed. The room was great, newly decorated and the most comfortable bed we've slept on in a hotel for some time at this price range. Nice big LCD tv on the wall and good wifi coverageThis was a fair distance from Disneyland and your usual LA attractions, but close if you are working in the CBD. There is also a bus stop across the street for those without a vehicle.Breakfast was basic but a nice waffle to go with it and we always filled up on this. Hardly needing any lunch which saved us time and money.The only down side to this hotel was the fact that parking was a little scarce, one night we arrived late after seeing the fireworks at Disneyland and there were only 2 car parks left 1 was too small for our car and the other we couldn't fit as someone had parked over the line. We asked the man at the counter if we could park up against the brick wall for the night, he said no and didn't offer any alternative and couldn't even tell us the rules about parking on the street. so we had to park on the street which was free overnight and then a 1 hour limit from 8am which was a slight pain as we were hoping for a sleep in. To rub salt in the wound 2 days later we found 2 cars parked against the brick wall.To sum it up, it was very nice, very clean. Just a minor let down with the parking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r169183010-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>169183010</t>
+  </si>
+  <si>
+    <t>07/26/2013</t>
+  </si>
+  <si>
+    <t>Hi there! My husband and I and our adult son, stayed at the Knights Inn for one week, and our experience was very good.</t>
+  </si>
+  <si>
+    <t>The room we had was large and the beds were king size and very comfortable, with a desk for do office work with ones computer, and this was very convenient. There was a large flat screened TV, which was well serviced by the staff, if any thing went wrong with it. There was a fridge for keeping thing cold: a large duchess for our clothes and walk in wardrobe. An ironing board and iron. The bathroom was a good size with bath and shower facilities. We took showers, and the water was plentiful and nice and hot, (having room to adjust and more for heat). We could take showers any time of the day. A hair drier was available, but did not use it. We were able to wash small items, and hang them to dry. The room had a balcony with comfortable rocking chairs and table, which was very nice as the weather while we were there was in the mid twenties. We had air conditioning in the room.
+The linen was changed every day, with nice white linen. Room service was very good if one needed anything. 
+All the staff are friendly and they did all they could to make our stay a very pleasant one. 
+The Inn is situated in a residential area, but a bus service is right outside the door, and taxis etc were readily available.. The Union Station was a short bus ride away....The room we had was large and the beds were king size and very comfortable, with a desk for do office work with ones computer, and this was very convenient. There was a large flat screened TV, which was well serviced by the staff, if any thing went wrong with it. There was a fridge for keeping thing cold: a large duchess for our clothes and walk in wardrobe. An ironing board and iron. The bathroom was a good size with bath and shower facilities. We took showers, and the water was plentiful and nice and hot, (having room to adjust and more for heat). We could take showers any time of the day. A hair drier was available, but did not use it. We were able to wash small items, and hang them to dry. The room had a balcony with comfortable rocking chairs and table, which was very nice as the weather while we were there was in the mid twenties. We had air conditioning in the room.The linen was changed every day, with nice white linen. Room service was very good if one needed anything. All the staff are friendly and they did all they could to make our stay a very pleasant one. The Inn is situated in a residential area, but a bus service is right outside the door, and taxis etc were readily available.. The Union Station was a short bus ride away.There were little stores where one good get most of the necessary things, needed while on holiday. There is even a Bakery over the road, where one can get yummy fresh baked bread and all sorts of other caked and lunch snacks and light meals. The service here was very nice and friendly.We were directed to a Laundry/Dry cleaner for the washing, which was very good. I left the washing and it was all ready the next day. I picked it up, so I don't know whether there was a delivery service. The standard of the laundry was very good. Over all I would recommend Knights Inn to anyone who does not mind an older style building. For us, we found Knights Inn a very friendly and comfortable place to stay and the service by all the staff, was exceptional!The other thing I forgot to mention was, we had breakfast provided free each day! Waffles were made fresh each day, with Maple Syrup and they were delicious. My husband liked the friendly, well light reception area, which looked out onto the road and also the breakfast room, where one could listen to the news while eating and also look out onto the street. There was a patio with flower planters to sit at, when waiting for a taxi or just if one want to enjoy a quiet spell. Knights Inn is a very pleasant place to stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>The room we had was large and the beds were king size and very comfortable, with a desk for do office work with ones computer, and this was very convenient. There was a large flat screened TV, which was well serviced by the staff, if any thing went wrong with it. There was a fridge for keeping thing cold: a large duchess for our clothes and walk in wardrobe. An ironing board and iron. The bathroom was a good size with bath and shower facilities. We took showers, and the water was plentiful and nice and hot, (having room to adjust and more for heat). We could take showers any time of the day. A hair drier was available, but did not use it. We were able to wash small items, and hang them to dry. The room had a balcony with comfortable rocking chairs and table, which was very nice as the weather while we were there was in the mid twenties. We had air conditioning in the room.
+The linen was changed every day, with nice white linen. Room service was very good if one needed anything. 
+All the staff are friendly and they did all they could to make our stay a very pleasant one. 
+The Inn is situated in a residential area, but a bus service is right outside the door, and taxis etc were readily available.. The Union Station was a short bus ride away....The room we had was large and the beds were king size and very comfortable, with a desk for do office work with ones computer, and this was very convenient. There was a large flat screened TV, which was well serviced by the staff, if any thing went wrong with it. There was a fridge for keeping thing cold: a large duchess for our clothes and walk in wardrobe. An ironing board and iron. The bathroom was a good size with bath and shower facilities. We took showers, and the water was plentiful and nice and hot, (having room to adjust and more for heat). We could take showers any time of the day. A hair drier was available, but did not use it. We were able to wash small items, and hang them to dry. The room had a balcony with comfortable rocking chairs and table, which was very nice as the weather while we were there was in the mid twenties. We had air conditioning in the room.The linen was changed every day, with nice white linen. Room service was very good if one needed anything. All the staff are friendly and they did all they could to make our stay a very pleasant one. The Inn is situated in a residential area, but a bus service is right outside the door, and taxis etc were readily available.. The Union Station was a short bus ride away.There were little stores where one good get most of the necessary things, needed while on holiday. There is even a Bakery over the road, where one can get yummy fresh baked bread and all sorts of other caked and lunch snacks and light meals. The service here was very nice and friendly.We were directed to a Laundry/Dry cleaner for the washing, which was very good. I left the washing and it was all ready the next day. I picked it up, so I don't know whether there was a delivery service. The standard of the laundry was very good. Over all I would recommend Knights Inn to anyone who does not mind an older style building. For us, we found Knights Inn a very friendly and comfortable place to stay and the service by all the staff, was exceptional!The other thing I forgot to mention was, we had breakfast provided free each day! Waffles were made fresh each day, with Maple Syrup and they were delicious. My husband liked the friendly, well light reception area, which looked out onto the road and also the breakfast room, where one could listen to the news while eating and also look out onto the street. There was a patio with flower planters to sit at, when waiting for a taxi or just if one want to enjoy a quiet spell. Knights Inn is a very pleasant place to stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r162698540-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>162698540</t>
+  </si>
+  <si>
+    <t>06/02/2013</t>
+  </si>
+  <si>
+    <t>Keep your wits about you</t>
+  </si>
+  <si>
+    <t>The outside is pretty daunting when you turn up, but the rooms are nice &amp; spacious, made a mistake by not realising that it is on the back of a freeway, very noisy if you open the doors. One thing that was worrying us when we arrived was that there were a fair amount of "characters" in this area giving us the stare, not exactly the place you would go &amp; venture out for a pint somewhere. On the upside, the breakfast was quite good &amp; spacious room for all the guests, there was also a nice European girl who made me waffles which was a bonus ;)MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Charles W, Guest Relations Manager at Knights Inn Los Angeles Central/Convention Center Area, responded to this reviewResponded June 4, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2013</t>
+  </si>
+  <si>
+    <t>The outside is pretty daunting when you turn up, but the rooms are nice &amp; spacious, made a mistake by not realising that it is on the back of a freeway, very noisy if you open the doors. One thing that was worrying us when we arrived was that there were a fair amount of "characters" in this area giving us the stare, not exactly the place you would go &amp; venture out for a pint somewhere. On the upside, the breakfast was quite good &amp; spacious room for all the guests, there was also a nice European girl who made me waffles which was a bonus ;)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r157746443-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>157746443</t>
+  </si>
+  <si>
+    <t>04/14/2013</t>
+  </si>
+  <si>
+    <t>Surprisingly excellent</t>
+  </si>
+  <si>
+    <t>I would ignore the older reviews, this place has a new owner and the manager is one of the most courteous hoteliers I've ever met. Outside of the room, this place is pretty grim. As for the room itself, I was informed that I got a renovated room (at the time of this review, not all rooms have been renovated) and I was impressed. Fresh paint, Full sized beds, free fast wifi, fridge, iron and board in the closet, and best of all an HDTV TV with hundreds of channels from DirecTV. The mirror in the bathroom was missing. Free breakfast featuring waffles and oatmeal amongst the usual stuff. There's a pretty good Filipino BBQ restaurant next door and locally owned convenience shops across the street.If you stay here, utilize the #10 bus. It runs every 20 minutes or so downtown. The closest metro rail station is Civic Center/Grand Park, get off at 1st Street. The bus also runs to West Hollywood in the other direction, if you're into that sort of thing.Good location, good breakfast, great rooms and caring. Neighbourhood is a bit intimidating at night but almost all of downtown LA is. Recommended!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Charles W, Guest Relations Manager at Knights Inn Los Angeles Central/Convention Center Area, responded to this reviewResponded April 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2013</t>
+  </si>
+  <si>
+    <t>I would ignore the older reviews, this place has a new owner and the manager is one of the most courteous hoteliers I've ever met. Outside of the room, this place is pretty grim. As for the room itself, I was informed that I got a renovated room (at the time of this review, not all rooms have been renovated) and I was impressed. Fresh paint, Full sized beds, free fast wifi, fridge, iron and board in the closet, and best of all an HDTV TV with hundreds of channels from DirecTV. The mirror in the bathroom was missing. Free breakfast featuring waffles and oatmeal amongst the usual stuff. There's a pretty good Filipino BBQ restaurant next door and locally owned convenience shops across the street.If you stay here, utilize the #10 bus. It runs every 20 minutes or so downtown. The closest metro rail station is Civic Center/Grand Park, get off at 1st Street. The bus also runs to West Hollywood in the other direction, if you're into that sort of thing.Good location, good breakfast, great rooms and caring. Neighbourhood is a bit intimidating at night but almost all of downtown LA is. Recommended!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r156512213-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>156512213</t>
+  </si>
+  <si>
+    <t>04/03/2013</t>
+  </si>
+  <si>
+    <t>Refurbished motel close to downtown</t>
+  </si>
+  <si>
+    <t>This was my first time here so I can't say what it used to be like but now it's a perfectly good, basic motel within easy walking distance of downtown (including Chinatown, little Tokyo, the Fashion District etc) There are also bus stops outside.My room had been recently refurbished and everything was clean and good quality. There's a coffee machine and fridge and there's a microwave in the breakfast room which you can use.Breakfast is cereal, toast, waffles and fresh fruit and it's adequate to get you started.The area around the hotel isn't beautiful but it's not at all dangerous (and apparently Echo Park is one of the up and coming parts of Los Angeles)Next to the motel is a bar/restaurant called The Park's Finest which serves a good range of beers and barbecue type meats - the portions are huge!Across the road there's a bakery which is pretty good (I had a very nice banana muffin for just $1). There's also a greengrocer next to this if you want some fresh fruit.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>This was my first time here so I can't say what it used to be like but now it's a perfectly good, basic motel within easy walking distance of downtown (including Chinatown, little Tokyo, the Fashion District etc) There are also bus stops outside.My room had been recently refurbished and everything was clean and good quality. There's a coffee machine and fridge and there's a microwave in the breakfast room which you can use.Breakfast is cereal, toast, waffles and fresh fruit and it's adequate to get you started.The area around the hotel isn't beautiful but it's not at all dangerous (and apparently Echo Park is one of the up and coming parts of Los Angeles)Next to the motel is a bar/restaurant called The Park's Finest which serves a good range of beers and barbecue type meats - the portions are huge!Across the road there's a bakery which is pretty good (I had a very nice banana muffin for just $1). There's also a greengrocer next to this if you want some fresh fruit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r138944451-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>138944451</t>
+  </si>
+  <si>
+    <t>08/30/2012</t>
+  </si>
+  <si>
+    <t>We chose to believe the stains on the sheets were chocolate......</t>
+  </si>
+  <si>
+    <t>So, we were suckered in by Hotwire which booked the room and then we couldnt cancel. Checking in was OK. Parking lot seemed a bit shady, but we didn't get mugged and car was not broken into so thats a bonus. Check in was OK, staff was nice. There was a huge iron burn mark on the floor. Upon inspection of the bedding, there was a huge obvious brownish reddish streaks all over the sheets. We are pretty chill, but that was a bit much for us. If you have a choice in the matter, dont stay here. There is an awesome Mexican bakery across the street which is worth noting.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Charles W, Guest Relations Manager at Knights Inn Los Angeles Central/Convention Center Area, responded to this reviewResponded September 1, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 1, 2012</t>
+  </si>
+  <si>
+    <t>So, we were suckered in by Hotwire which booked the room and then we couldnt cancel. Checking in was OK. Parking lot seemed a bit shady, but we didn't get mugged and car was not broken into so thats a bonus. Check in was OK, staff was nice. There was a huge iron burn mark on the floor. Upon inspection of the bedding, there was a huge obvious brownish reddish streaks all over the sheets. We are pretty chill, but that was a bit much for us. If you have a choice in the matter, dont stay here. There is an awesome Mexican bakery across the street which is worth noting.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r133695722-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>133695722</t>
+  </si>
+  <si>
+    <t>07/07/2012</t>
+  </si>
+  <si>
+    <t>Terrible</t>
+  </si>
+  <si>
+    <t>they must close it but keep operating during renovation. Nobody lean room. no breakfast, stink</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r130376724-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>130376724</t>
+  </si>
+  <si>
+    <t>05/21/2012</t>
+  </si>
+  <si>
+    <t>BEWARE!! DANGER!! BAD EVERYTHING!!!</t>
+  </si>
+  <si>
+    <t>I booked this hotel through priceline and when I arrived I didn't feel safe. BAD area, there were bars around the building had to be buzzed in. The front desk was rude, the internet was down no air conditioning, smelly and dirty. They couldn't give me the requested beds. I left saying I wasn't staying there. She reassured me I wouldn't be charged, but sure enough I was charged and never seen any of the money. I felt right ripped off!  Save your money time and frustration and avoid this dump. It really should be shut down!</t>
+  </si>
+  <si>
+    <t>July 2011</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1864,3555 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>94</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O10" t="s">
+        <v>107</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" t="s">
+        <v>113</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>114</v>
+      </c>
+      <c r="O11" t="s">
+        <v>107</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" t="s">
+        <v>119</v>
+      </c>
+      <c r="L12" t="s">
+        <v>120</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>121</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" t="s">
+        <v>125</v>
+      </c>
+      <c r="L13" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>121</v>
+      </c>
+      <c r="O13" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" t="s">
+        <v>131</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>132</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>2</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" t="s">
+        <v>136</v>
+      </c>
+      <c r="K15" t="s">
+        <v>137</v>
+      </c>
+      <c r="L15" t="s">
+        <v>138</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>139</v>
+      </c>
+      <c r="O15" t="s">
+        <v>87</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J16" t="s">
+        <v>142</v>
+      </c>
+      <c r="K16" t="s">
+        <v>143</v>
+      </c>
+      <c r="L16" t="s">
+        <v>144</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>145</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>147</v>
+      </c>
+      <c r="J17" t="s">
+        <v>148</v>
+      </c>
+      <c r="K17" t="s">
+        <v>149</v>
+      </c>
+      <c r="L17" t="s">
+        <v>150</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>151</v>
+      </c>
+      <c r="O17" t="s">
+        <v>107</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>154</v>
+      </c>
+      <c r="J18" t="s">
+        <v>155</v>
+      </c>
+      <c r="K18" t="s">
+        <v>156</v>
+      </c>
+      <c r="L18" t="s">
+        <v>157</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>158</v>
+      </c>
+      <c r="O18" t="s">
+        <v>72</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>160</v>
+      </c>
+      <c r="J19" t="s">
+        <v>161</v>
+      </c>
+      <c r="K19" t="s">
+        <v>162</v>
+      </c>
+      <c r="L19" t="s">
+        <v>163</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>164</v>
+      </c>
+      <c r="O19" t="s">
+        <v>72</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>165</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>166</v>
+      </c>
+      <c r="J20" t="s">
+        <v>167</v>
+      </c>
+      <c r="K20" t="s">
+        <v>168</v>
+      </c>
+      <c r="L20" t="s">
+        <v>169</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>164</v>
+      </c>
+      <c r="O20" t="s">
+        <v>94</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>170</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>171</v>
+      </c>
+      <c r="J21" t="s">
+        <v>172</v>
+      </c>
+      <c r="K21" t="s">
+        <v>173</v>
+      </c>
+      <c r="L21" t="s">
+        <v>174</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>164</v>
+      </c>
+      <c r="O21" t="s">
+        <v>72</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>177</v>
+      </c>
+      <c r="J22" t="s">
+        <v>178</v>
+      </c>
+      <c r="K22" t="s">
+        <v>179</v>
+      </c>
+      <c r="L22" t="s">
+        <v>180</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>164</v>
+      </c>
+      <c r="O22" t="s">
+        <v>94</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>182</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>183</v>
+      </c>
+      <c r="J23" t="s">
+        <v>184</v>
+      </c>
+      <c r="K23" t="s">
+        <v>185</v>
+      </c>
+      <c r="L23" t="s">
+        <v>186</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>187</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>188</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>189</v>
+      </c>
+      <c r="J24" t="s">
+        <v>190</v>
+      </c>
+      <c r="K24" t="s">
+        <v>191</v>
+      </c>
+      <c r="L24" t="s">
+        <v>192</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>187</v>
+      </c>
+      <c r="O24" t="s">
+        <v>87</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>193</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>194</v>
+      </c>
+      <c r="J25" t="s">
+        <v>195</v>
+      </c>
+      <c r="K25" t="s">
+        <v>196</v>
+      </c>
+      <c r="L25" t="s">
+        <v>197</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>199</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>200</v>
+      </c>
+      <c r="J26" t="s">
+        <v>201</v>
+      </c>
+      <c r="K26" t="s">
+        <v>202</v>
+      </c>
+      <c r="L26" t="s">
+        <v>203</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>204</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>2</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>206</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>207</v>
+      </c>
+      <c r="J27" t="s">
+        <v>208</v>
+      </c>
+      <c r="K27" t="s">
+        <v>209</v>
+      </c>
+      <c r="L27" t="s">
+        <v>210</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>211</v>
+      </c>
+      <c r="O27" t="s">
+        <v>87</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>212</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>213</v>
+      </c>
+      <c r="J28" t="s">
+        <v>214</v>
+      </c>
+      <c r="K28" t="s">
+        <v>215</v>
+      </c>
+      <c r="L28" t="s">
+        <v>216</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>217</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>218</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>219</v>
+      </c>
+      <c r="J29" t="s">
+        <v>220</v>
+      </c>
+      <c r="K29" t="s">
+        <v>221</v>
+      </c>
+      <c r="L29" t="s">
+        <v>222</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>223</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>225</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>226</v>
+      </c>
+      <c r="J30" t="s">
+        <v>227</v>
+      </c>
+      <c r="K30" t="s">
+        <v>228</v>
+      </c>
+      <c r="L30" t="s">
+        <v>229</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>230</v>
+      </c>
+      <c r="O30" t="s">
+        <v>107</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>231</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>232</v>
+      </c>
+      <c r="J31" t="s">
+        <v>233</v>
+      </c>
+      <c r="K31" t="s">
+        <v>234</v>
+      </c>
+      <c r="L31" t="s">
+        <v>235</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>236</v>
+      </c>
+      <c r="O31" t="s">
+        <v>107</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>238</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>239</v>
+      </c>
+      <c r="J32" t="s">
+        <v>240</v>
+      </c>
+      <c r="K32" t="s">
+        <v>241</v>
+      </c>
+      <c r="L32" t="s">
+        <v>242</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>236</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>243</v>
+      </c>
+      <c r="X32" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>246</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>247</v>
+      </c>
+      <c r="J33" t="s">
+        <v>248</v>
+      </c>
+      <c r="K33" t="s">
+        <v>249</v>
+      </c>
+      <c r="L33" t="s">
+        <v>250</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>251</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>1</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>243</v>
+      </c>
+      <c r="X33" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>253</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>254</v>
+      </c>
+      <c r="J34" t="s">
+        <v>255</v>
+      </c>
+      <c r="K34" t="s">
+        <v>256</v>
+      </c>
+      <c r="L34" t="s">
+        <v>257</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>251</v>
+      </c>
+      <c r="O34" t="s">
+        <v>94</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>259</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>260</v>
+      </c>
+      <c r="J35" t="s">
+        <v>261</v>
+      </c>
+      <c r="K35" t="s">
+        <v>262</v>
+      </c>
+      <c r="L35" t="s">
+        <v>263</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>217</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>264</v>
+      </c>
+      <c r="X35" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>267</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>268</v>
+      </c>
+      <c r="J36" t="s">
+        <v>269</v>
+      </c>
+      <c r="K36" t="s">
+        <v>270</v>
+      </c>
+      <c r="L36" t="s">
+        <v>271</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>272</v>
+      </c>
+      <c r="O36" t="s">
+        <v>72</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>273</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>274</v>
+      </c>
+      <c r="J37" t="s">
+        <v>275</v>
+      </c>
+      <c r="K37" t="s"/>
+      <c r="L37" t="s"/>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>276</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>277</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>278</v>
+      </c>
+      <c r="J38" t="s">
+        <v>279</v>
+      </c>
+      <c r="K38" t="s">
+        <v>280</v>
+      </c>
+      <c r="L38" t="s">
+        <v>281</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>282</v>
+      </c>
+      <c r="O38" t="s">
+        <v>87</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>283</v>
+      </c>
+      <c r="X38" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>286</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>287</v>
+      </c>
+      <c r="J39" t="s">
+        <v>288</v>
+      </c>
+      <c r="K39" t="s">
+        <v>289</v>
+      </c>
+      <c r="L39" t="s">
+        <v>290</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>291</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>293</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>294</v>
+      </c>
+      <c r="J40" t="s">
+        <v>295</v>
+      </c>
+      <c r="K40" t="s"/>
+      <c r="L40" t="s">
+        <v>296</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>291</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>298</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>299</v>
+      </c>
+      <c r="J41" t="s">
+        <v>300</v>
+      </c>
+      <c r="K41" t="s">
+        <v>301</v>
+      </c>
+      <c r="L41" t="s">
+        <v>302</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>303</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>304</v>
+      </c>
+      <c r="X41" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>307</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>308</v>
+      </c>
+      <c r="J42" t="s">
+        <v>309</v>
+      </c>
+      <c r="K42" t="s"/>
+      <c r="L42" t="s"/>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>310</v>
+      </c>
+      <c r="O42" t="s">
+        <v>107</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>311</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>312</v>
+      </c>
+      <c r="J43" t="s">
+        <v>313</v>
+      </c>
+      <c r="K43" t="s">
+        <v>314</v>
+      </c>
+      <c r="L43" t="s">
+        <v>315</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>316</v>
+      </c>
+      <c r="O43" t="s">
+        <v>87</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>317</v>
+      </c>
+      <c r="X43" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>320</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>321</v>
+      </c>
+      <c r="J44" t="s">
+        <v>322</v>
+      </c>
+      <c r="K44" t="s">
+        <v>58</v>
+      </c>
+      <c r="L44" t="s">
+        <v>323</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>324</v>
+      </c>
+      <c r="X44" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>327</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>328</v>
+      </c>
+      <c r="J45" t="s">
+        <v>329</v>
+      </c>
+      <c r="K45" t="s">
+        <v>330</v>
+      </c>
+      <c r="L45" t="s">
+        <v>331</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>332</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>333</v>
+      </c>
+      <c r="X45" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>336</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>337</v>
+      </c>
+      <c r="J46" t="s">
+        <v>338</v>
+      </c>
+      <c r="K46" t="s">
+        <v>339</v>
+      </c>
+      <c r="L46" t="s">
+        <v>340</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>341</v>
+      </c>
+      <c r="O46" t="s">
+        <v>107</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>342</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>343</v>
+      </c>
+      <c r="J47" t="s">
+        <v>344</v>
+      </c>
+      <c r="K47" t="s">
+        <v>345</v>
+      </c>
+      <c r="L47" t="s">
+        <v>346</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>347</v>
+      </c>
+      <c r="O47" t="s">
+        <v>87</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>349</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>350</v>
+      </c>
+      <c r="J48" t="s">
+        <v>351</v>
+      </c>
+      <c r="K48" t="s">
+        <v>352</v>
+      </c>
+      <c r="L48" t="s">
+        <v>353</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>332</v>
+      </c>
+      <c r="O48" t="s">
+        <v>72</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>354</v>
+      </c>
+      <c r="X48" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>357</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>358</v>
+      </c>
+      <c r="J49" t="s">
+        <v>359</v>
+      </c>
+      <c r="K49" t="s">
+        <v>360</v>
+      </c>
+      <c r="L49" t="s">
+        <v>361</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>347</v>
+      </c>
+      <c r="O49" t="s">
+        <v>107</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>362</v>
+      </c>
+      <c r="X49" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>365</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>366</v>
+      </c>
+      <c r="J50" t="s">
+        <v>367</v>
+      </c>
+      <c r="K50" t="s">
+        <v>368</v>
+      </c>
+      <c r="L50" t="s">
+        <v>369</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>370</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>371</v>
+      </c>
+      <c r="X50" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>374</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>375</v>
+      </c>
+      <c r="J51" t="s">
+        <v>376</v>
+      </c>
+      <c r="K51" t="s">
+        <v>209</v>
+      </c>
+      <c r="L51" t="s">
+        <v>377</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>378</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>379</v>
+      </c>
+      <c r="X51" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>382</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>383</v>
+      </c>
+      <c r="J52" t="s">
+        <v>384</v>
+      </c>
+      <c r="K52" t="s">
+        <v>385</v>
+      </c>
+      <c r="L52" t="s">
+        <v>386</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>378</v>
+      </c>
+      <c r="O52" t="s">
+        <v>94</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>379</v>
+      </c>
+      <c r="X52" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>388</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>389</v>
+      </c>
+      <c r="J53" t="s">
+        <v>390</v>
+      </c>
+      <c r="K53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L53" t="s">
+        <v>392</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>393</v>
+      </c>
+      <c r="O53" t="s">
+        <v>72</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>394</v>
+      </c>
+      <c r="X53" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>397</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>398</v>
+      </c>
+      <c r="J54" t="s">
+        <v>399</v>
+      </c>
+      <c r="K54" t="s">
+        <v>400</v>
+      </c>
+      <c r="L54" t="s">
+        <v>401</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>402</v>
+      </c>
+      <c r="O54" t="s">
+        <v>107</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>403</v>
+      </c>
+      <c r="X54" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>406</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>407</v>
+      </c>
+      <c r="J55" t="s">
+        <v>408</v>
+      </c>
+      <c r="K55" t="s">
+        <v>409</v>
+      </c>
+      <c r="L55" t="s">
+        <v>410</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>411</v>
+      </c>
+      <c r="O55" t="s">
+        <v>107</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>403</v>
+      </c>
+      <c r="X55" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>413</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>414</v>
+      </c>
+      <c r="J56" t="s">
+        <v>415</v>
+      </c>
+      <c r="K56" t="s">
+        <v>416</v>
+      </c>
+      <c r="L56" t="s">
+        <v>417</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>418</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>2</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>419</v>
+      </c>
+      <c r="X56" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>422</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>423</v>
+      </c>
+      <c r="J57" t="s">
+        <v>424</v>
+      </c>
+      <c r="K57" t="s">
+        <v>425</v>
+      </c>
+      <c r="L57" t="s">
+        <v>426</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>427</v>
+      </c>
+      <c r="O57" t="s">
+        <v>94</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>428</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>429</v>
+      </c>
+      <c r="J58" t="s">
+        <v>430</v>
+      </c>
+      <c r="K58" t="s">
+        <v>431</v>
+      </c>
+      <c r="L58" t="s">
+        <v>432</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>433</v>
+      </c>
+      <c r="O58" t="s">
+        <v>72</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>1</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>432</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_458.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_458.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="491">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>Chris W</t>
   </si>
   <si>
     <t>07/06/2018</t>
@@ -193,6 +196,9 @@
  If you are looking to save money on your accommodation, this is a great hotel. i would stay...Stayed here whilst working in LA and whilst it is a budget hotel, it's clean and comfortable and a great location for getting about.The rooms are a decent size and clean with a great shower, big tv, air con and a coffee make which, being british, we used to make tea too. We had a fridge and an iron in our room which were useful! The WiFi is sporadic but you can get a better if you move about...... There's no safe in the room but we had no issues with anything being tampered with during our stay. The breakfast is simple but good, with cereal, toast, fruit and hot drinks available. The staff make waffles too which were great. The cutlery is plastic and the plates are polystyrene which wasn't great but perfectly useable.As others have said, there is a small parking garage but as I didn't have a car, this wasn't a concern. There was space for taxis to stop outside if you use them.The area is away from downtown LA so don't expect bars and restaurants but it felt safe and many of the people we spoke to said it was a great, diverse part of town. Just up the road was a Taco truck that one cab driver said was the best in the US! If you are looking to save money on your accommodation, this is a great hotel. i would stay here again, for sure.More</t>
   </si>
   <si>
+    <t>venicebeach2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r580250586-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -211,6 +217,9 @@
     <t>April 2018</t>
   </si>
   <si>
+    <t>Aaron T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r579251215-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -226,6 +235,9 @@
     <t>I booked in advance via agoda for 14 April to 16 April and was charged via agoda.When i checked out, there was no mention of any charge as expected. But when I returned home 2 weeks later, I notice that Knight's Inn had charged me the same amount again USD 191.67I've emailed the hotel and there is just silence. So be warned if you want to book this hotel.</t>
   </si>
   <si>
+    <t>Lacquerella</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r572091694-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -250,6 +262,9 @@
     <t>** this is the first hotel I ever booked &amp; canceled my stay upon arrival** Booked two nights here through southwest.com-reviews &amp; pics looked decent. I travel and stay at hotels for work at least twice a month...I could not believe the stuff I saw. Right when I parked, the smell of weed and amount of ladies walking around like it’s the red light district is the the first thing I noticed. The doors didn’t look safe- my guest and I even considered leaving our luggage in the car because it’s safer? Room wasn’t ready upon arrival anyway. Maybe because it was All Star weekend, it was like a circus outside but personally my safety is very important to me. So we didn’t end up checking in and canceled our stay there. Worth paying more money to stay somewhere with more security and sleep without any fear. More</t>
   </si>
   <si>
+    <t>Sarina14</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r569554103-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -271,6 +286,9 @@
     <t>My husband and I were looking for suitable accommodation for 5 days in LA that was close to down town since he had a conference to attend at the Convention Center in DALA.   We were fortunate to find Knights Inn, which is part of the Wyndham Hotels chain, which was really well priced.  Modest but very clean small rooms with attached bath.   We could even park our car in the covered parking right in the compound.  Free continental breakfast was included as well.  The freshly made waffles were a treat, as were the delicious strawberries and other fruits.   The hotel had a wonderful Filipino restaurant closeby where I sampled Filipino cuisine for the first time and loved it!   Just across the hotel was K Bakery, which had the best Mexican sweetbreads and freshly squeezed juices!   I took the Uber to the sites I wanted to visit, and even walked back one afternoon after a day at the Broad museum.   Good value for money.  I felt very much at home at Knights Inn, which had guests from literally all corners of the world!  The staff was friendly and very helpful.    One side of the hotel faces the freeway which can be noisy, but we were fortunate to have a street side room.More</t>
   </si>
   <si>
+    <t>le0gan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r557833151-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -292,6 +310,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Osmara I</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r538998761-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -313,6 +334,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>alison m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r527860100-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -331,6 +355,9 @@
     <t>September 2017</t>
   </si>
   <si>
+    <t>adam s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r506555609-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -353,6 +380,9 @@
   </si>
   <si>
     <t>Ok i been to a few hotels in la area from nice to horrible. So im rateing this a 5 star on a budget hotel and compare to the other hotels around the area meaning hollywood and downtown lA im not gonna compare it to the high end hotel but just the budget ones.. Ok the price is good even for the summer time you can get at least for under 100 bucks its usaually ranges from 77 go 90 dollars but if you do it in day or two adavnce but it will go over 100 if you do it the day of and this place gets sells out fast recomend day of..compare to Hollywood and downtown most budget hotels are close to 200 dollars. Ok the rooms are clean there is a fridge and cable tv ac..wifi worked fine when i was there.. Breakfast was very basic but a little more than some budget hotel but that proably saves on the cost of the hotel . the hotel is in between downtown and hollywood close to dodger stadium. If your doing the tourist thing or buisness.. I would leave your car in there underground parking its secure..and i would uber or lyft everwere or do a 10 min walk to the metro . uber or lyft to downtown if you do the pool is like 3 to 5 dollars and to hollwood it can be 5 to 10...Ok i been to a few hotels in la area from nice to horrible. So im rateing this a 5 star on a budget hotel and compare to the other hotels around the area meaning hollywood and downtown lA im not gonna compare it to the high end hotel but just the budget ones.. Ok the price is good even for the summer time you can get at least for under 100 bucks its usaually ranges from 77 go 90 dollars but if you do it in day or two adavnce but it will go over 100 if you do it the day of and this place gets sells out fast recomend day of..compare to Hollywood and downtown most budget hotels are close to 200 dollars. Ok the rooms are clean there is a fridge and cable tv ac..wifi worked fine when i was there.. Breakfast was very basic but a little more than some budget hotel but that proably saves on the cost of the hotel . the hotel is in between downtown and hollywood close to dodger stadium. If your doing the tourist thing or buisness.. I would leave your car in there underground parking its secure..and i would uber or lyft everwere or do a 10 min walk to the metro . uber or lyft to downtown if you do the pool is like 3 to 5 dollars and to hollwood it can be 5 to 10 dollars but still saves on parking..and avoiding driving in traffic. The rooms were fine and clean yes it might look outdated but so do all the other budget hotel look. If you want to fix it up too look brand spanking new well than the prices would go. They have cable tv flat screen bath and shower . they only modern thing they did not have was a microwave.the area was ok they did not have anywere right by the hotel if you wanted to get something to eat just like a bakery and liqor store but with all thesee apps that you can get stuff deliver it was no problem getriing something.. If you just need a home base like sleep and shower and place to rest inbtween things this place is good . so i give it a 5 stars for a budget hotel not for high end hotel..it allows you to save on your money...More</t>
+  </si>
+  <si>
+    <t>David M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r495510253-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
@@ -384,6 +414,9 @@
 The only thing I'll say in their defense is that they did put me in another hotel about a mile away, but the quality of that motel was subpar at best, plus I...***BUYER BEWARE***I booked this hotel for an event in the area four MONTHS before the event because I knew hotels in the area would fill up fast. I booked it using a credit card that I am very good about paying off and use all the time. I had no issues booking the room. Come the day I was supposed to check in and when I get to the hotel that evening, after a long day on my feet and dead tired, I'm told that my card was declined when they ran the cards that morning and they went to the next person on a waiting list. They didn't try to contact me to find out if there was something wrong with my card, or to allow me to use perhaps another card, they just canceled my reservation and gave it to someone else. THIS IS PISS POOR CUSTOMER SERVICE!!! How can they not even try to get in touch with a customer who makes reservations that far in advance! I was appalled and incredibly distraught with Knights Inn. I will make it a point to never stay at this hotel in the future and I highly recommend you stay away from this hotel as well. The only thing I'll say in their defense is that they did put me in another hotel about a mile away, but the quality of that motel was subpar at best, plus I had to walk a mile there with all my bags because I wasn't going to pay for another cab. Made what should have been a great start to a  vacation a nightmare.More</t>
   </si>
   <si>
+    <t>Jezetus</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r488403099-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -402,6 +435,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>bbqqbb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r481949889-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -417,6 +453,9 @@
     <t>Clean, Spacious rooms in a derelict neighbourhood. Close to downtown metro station which can take you to most sights (not rodeo drive though) . Breakfast is allright, you get what you pay for. Good enough for a short stay.</t>
   </si>
   <si>
+    <t>ALadyNCal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r459750501-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -438,6 +477,9 @@
     <t>I will be generous and give them 3 stars because the guy at the front desk was friendly and helpful.  I realized this was a basic budget motel but after seeing it in person I can't believe it's a Wyndham property and it certainly didn't look like the room photos I saw on the Wyndham site.  It's a very small property and the two rooms we saw were tiny, very very outdated with full sized beds, scuffed furniture, and very old bathrooms.  Depressing and dark in general.  First room had no towels and I was thinking how it looked really different than the pictures online and we asked for maybe a quieter room and he showed us one at the far back but it was just the same.  We decided not to stay and we appreciate that he promptly refunded our money.  The downstairs parking garage was very small and it probably doesn't accommodate all the guests but they do lock it so it would be secure.  The property is tiny, only about 25 rooms.  One website says they have a restaurant -- that is definitely not true.  Maybe they have a couple of updated rooms and that is what is featured online but the rooms we previewed were more like 1979.  Again, front desk was very helpful.More</t>
   </si>
   <si>
+    <t>Starbuck D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r458937290-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -456,6 +498,9 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>Paul14M14</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r446809303-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -474,6 +519,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>SAM L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r433429534-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -495,6 +543,9 @@
     <t>The room looked to be renovated relatively recently. The walls are very thin and the building is next to the freeway so expect a fair amount of noise. Mini fridge but no microwave. No elevator. Breakfast was very nice with cereal, bread, waffles, and my favorite part, fresh fruit. There is a limited number of parking spaces so if you really want to park there, be back to the hotel early. Otherwise the only other option is to park on the street but the neighborhood is relatively safe; just really busy during the day. The wifi is just okay. You won't be able to do any bandwidth sensitive tasks but it's adequate for checking emails and light browsing.Some tips: 1.) If you want ice, bring your ice bucket to the office and ask the person there so they can take you to the kitchen to get some. Also, you can get some during breakfast when it is also open. Just ask the staff. They're really nice and helpful.2.) Try the BBQ place up the street.More</t>
   </si>
   <si>
+    <t>amy270486</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r414403797-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -513,6 +564,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>cmaria09</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r410327926-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -531,6 +585,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>gitcraker</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r399905572-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -546,6 +603,9 @@
     <t xml:space="preserve">Stayed here as the first stop in LA. Hotel is nice, affordable and close to downtown with access to public transport buses nearby. Stayed in smoke free room. The rooms are small but clean and tidy. Breakfast is complementary and very good. Staff is very polite and friendly. Although kids stay free, please make sure to call them beforehand if you are coming with kids (4 years and less). Please note if you want to go to Hollywood and rely on public transport then it is 1 hour from here (Bus to civic centre and train to hollywood).  Buy a clipper card to use public transport. </t>
   </si>
   <si>
+    <t>603leannb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r397113784-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -564,6 +624,9 @@
     <t>I stayed overnight on Saturday 7/23. The parking garage is very small, but there isn't an extra fee for parking. The garage is also locked at night and requires a room key to get in, I appreciated that. Check-in was quick and easy. Now, this place is definitely NOT handicap accessible. Access to the rooms are by stairs and I did not see an elevator anywhere. Just an FYI there. The room was very clean and looks like it was renovated fairly recently. There was a refrigerator and coffee pot in the room, both are nice to have. The shower was very clean and looked pretty new too. The room also included breakfast in the morning. There was a selection of fresh chopped fruit, cereal, bread to toast, coffee, tea, juice, and someone was there to cook/serve scrambled eggs, sausage, and a hash brown. All in all I felt I received a very good deal for the price I paid. The room served its purpose for a quick overnight trip, we would stay again. More</t>
   </si>
   <si>
+    <t>Angela M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r390551194-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -582,6 +645,9 @@
     <t>My 16 year old and I went to a Dodger game and needed a room for just the night. I wanted something close but obviously clean and safe. This motel is so close to Dodger Stadium that it took maybe 5 minutes to drive there. The neighborhood doesn't look the greatest but I didn't see anything going on that made me worry. I felt safe at the motel for sure. The room was very small (one queen that seemed more like a full) but it was very clean and the room appeared to have updated furniture and fixtures. They provide earplugs which I thought was cool and a great idea since there's a busy street outside. We were so tired we didn't need them. The parking situation is stressful. There is a tiny garage to use and has maybe 12 spaces is all. If they are full you have to park along side a wall or go out front of their building. The woman that checked us in was extremely rude. I'm so easy going and do not get easily upset but this woman had me heated. She cut me off and told me I could ask questions later. When she wrote down my car information and I attempted to give her my plate number, again she cut me off and told me she didn't need that and did I hear her ask me for that. She spoke to me...My 16 year old and I went to a Dodger game and needed a room for just the night. I wanted something close but obviously clean and safe. This motel is so close to Dodger Stadium that it took maybe 5 minutes to drive there. The neighborhood doesn't look the greatest but I didn't see anything going on that made me worry. I felt safe at the motel for sure. The room was very small (one queen that seemed more like a full) but it was very clean and the room appeared to have updated furniture and fixtures. They provide earplugs which I thought was cool and a great idea since there's a busy street outside. We were so tired we didn't need them. The parking situation is stressful. There is a tiny garage to use and has maybe 12 spaces is all. If they are full you have to park along side a wall or go out front of their building. The woman that checked us in was extremely rude. I'm so easy going and do not get easily upset but this woman had me heated. She cut me off and told me I could ask questions later. When she wrote down my car information and I attempted to give her my plate number, again she cut me off and told me she didn't need that and did I hear her ask me for that. She spoke to me with zero respect. I feel bad for someone who deals with her that is confused in the area or who needs something from her. I mentioned to someone else later in the evening about her but they shrugged their shoulders. Oh well. I paid $100 for the night; no bedbugs; and I woke up alive the next day with no harm to my vehicle. I'm happy with that!! Lol. More</t>
   </si>
   <si>
+    <t>Sharon S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r349702234-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -600,6 +666,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>Viridiana R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r344630842-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -615,6 +684,9 @@
     <t>We spend two nights there, is simple but is clean and safe, you can't ask more for the price. The best is the location and that the WiFi and parking lots are free.The breakfast is really simple and bad.</t>
   </si>
   <si>
+    <t>Michelle T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r339509036-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -633,6 +705,9 @@
     <t>If you want to be near the union station and the staples arena and are not looking to spend a whole lot this is your hotel, The staff was very nice, (they need to hire a new cab service though ) because they failed me big time on NYE.. They offer your standard continental breakfast, i was there 4 days and I wasn't offered any new towels or soaps but I did have my own, the metro bus is about a mile up the street, When i needed to cancel and go home 2 days early they did reimburse me, I liked the staff. the set up of the hotel is not usual but i guess that makes it unique. rooms were pretty clean, beds were kinda hard and remote tv was very slow. internet was good!!More</t>
   </si>
   <si>
+    <t>Eliz29-12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r328456581-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -654,6 +729,9 @@
     <t>Arriving at this hotel, one gets the impression that it has been recently taken over by new owners. There are some attempts to upgrade and the front desk staff were courteous and friendly . The breakfast was acceptable, and as is usually the case offered on disposable dishes with disposable cutlery. There was no greeting by staff who were busy speaking with each other in their own language.This area was acceptable clean.There is no elevator to the level where the rooms are... a problem for those with heavy suitcases.The room we were given smelled extremely smokey in spite of a "non smoking room label on the door.The water was not very hot in the shower and the bathroom caulking was in a deplorable state .... the bathroom needed serious upgrading. The most worrying thing was that the rooms are literally open to the street with absolutely no security . The hotel is a hilly 2 miles from the train station, not close to union station as advertised. The hotel backs onto a freeway but was surprisingly quiet.More</t>
   </si>
   <si>
+    <t>Kelly R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r326116178-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -672,6 +750,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>Suelyne D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r314895052-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -690,6 +771,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>MARKIE K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r285023320-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -711,6 +795,9 @@
     <t>Better than I expected. We had to book this motel the night before we left for LA because the Beverly Inn cancelled our reservation "by accident" and wouldn't reschedule us. I was worried that it would be a dump or be in a bad area of town. Once we got there we were very pleased with what we saw. Parking is in a small garage and we easily got a spot. Parking is ONLY for motel guests. We checked in and the woman up front was very nice and informative of the motel. We got little tickets for our breakfast each morning. I guess they have people coming in off the street trying to eat their breakfast. I wouldn't blame them, the breakfast was AMAZING. It was  a buffet but you had a lot to choose from. They always had an attendant there to take your breakfast tickets and make you fresh waffles if you wanted them. They had fresh fruit every morning and cereal and bagels and something that looked like angel food cake. Coffee milk and sunny D were available too. It was as nice little setup with a TV to watch the morning news on. You could even eat your breakfast out by the street if you wanted to. The motel is in a mexican community so there was a nice little spanish bakery across the street from the motel. The air conditioner worked well. We went...Better than I expected. We had to book this motel the night before we left for LA because the Beverly Inn cancelled our reservation "by accident" and wouldn't reschedule us. I was worried that it would be a dump or be in a bad area of town. Once we got there we were very pleased with what we saw. Parking is in a small garage and we easily got a spot. Parking is ONLY for motel guests. We checked in and the woman up front was very nice and informative of the motel. We got little tickets for our breakfast each morning. I guess they have people coming in off the street trying to eat their breakfast. I wouldn't blame them, the breakfast was AMAZING. It was  a buffet but you had a lot to choose from. They always had an attendant there to take your breakfast tickets and make you fresh waffles if you wanted them. They had fresh fruit every morning and cereal and bagels and something that looked like angel food cake. Coffee milk and sunny D were available too. It was as nice little setup with a TV to watch the morning news on. You could even eat your breakfast out by the street if you wanted to. The motel is in a mexican community so there was a nice little spanish bakery across the street from the motel. The air conditioner worked well. We went in the middle of May and had no trouble with being too hot in our room. We didn't spend a lot of time in the room because we went out during the day. The room was very clean every day and we got fresh towels everyday. I have no complaints about this motel. Beds were very comfortable. I slept well every night. The motel is located close to the highway but I couldn't hear the highway noise if the air was on it; it drowned the noise out. Overall this hotel was AWESOME and it was a great price too. I would totally recommend this place to anyone. It's close to the center of LA and its close to Chinatown.More</t>
   </si>
   <si>
+    <t>lillaz68</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r272642354-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -729,6 +816,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>Mary C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r272357067-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -750,6 +840,9 @@
     <t>A month ago, I made a trip to Los Angeles for a vacation that was unforgettable.    I chose to stay at the hotel Knights Inn and I can say  that I   made the best choice.   The hotel is located  in downtown Los Angeles.   Upon arrival at the hotel,I was immediately impressed with the upgraded exterior.It showed me they care about the appearance of their property.  I was greeted immediately by Adriana who was absolutely wonderful and helpful to me.  I am originally from Romania but I live in Tenerife,Canary Islands. It was my second trip to the United States but, the first trip by myself and they made me feel so very comfortable, welcome and safe.  The customer service I received was just exceptional. Emerson, Adriana and Norma, the head of housekeeping also makes the best homemade waffles I ever had!. The room was incredible for the price...I thought I was in the downtown Ritz Carlton!!  The room was newly remodeled, with direct TV, huge comfortable bed...very tastefully appointed room...and so very clean,with WIFI Free, Breakfast for my taste.Next time when  I come back to Los Angeles, I will not stay anywhere else and  I will choose this excellent hotel. I recommend the Knights Inn to any traveler coming to Los Angeles.    MARY CUCU,TENERIFE,CANARY ISLANDS,SPAINMore</t>
   </si>
   <si>
+    <t>Kayla W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r266722055-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -774,6 +867,9 @@
     <t>We made a reservation 2 weeks prior to arriving to this hotel. The day we reserved the room I had faxed over our voucher with a call confirming they had received it for our discount. When we arrived, however, the manager "couldn't" give the discount to us and he couldn't find our voucher. I then stated "If we cancel, I expect a full refund." He said that I would need to go online or call customer care to cancel. While I was on the phone with a man from the customer care line to see what we could do about our discount, he let me know that our reservation had already been canceled? "So the manager canceled our reservation without us telling him to and after he said he couldn't? Where are we going to stay? It's 4 pm on a Saturday in LA with a home Dodgers game that we are about to be late to?!" The man then urged us to file a report. We then luckily found a different hotel with 2 rooms left. The management is a joke and I would never recommend this place to anyone.  More</t>
   </si>
   <si>
+    <t>Athena M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r263260363-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -795,6 +891,9 @@
     <t>Payed $124 for one night. Which from what I have read is about double what they usually charge! This place is rundown and poorly maintained. The bathroom is falling apart.  My room had the sounds, smells and views of the Los Angeles Harbor Freeway which prevented me from sleeping. After check out, was hit with a fraudulent $250 additional charge to my card.  When I called to inquire, they said the housekeeper smelled smoke.  No one had smoked during our stay.  They refused to handle the matter appropriately.  The clerk, Rachel was rude and unprofessional. So now I get to file a small claims case simply because I chose this shady establishment to sleep that night.   My advice is don't waste your time here.More</t>
   </si>
   <si>
+    <t>marlene m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r261886029-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -813,6 +912,9 @@
     <t>I stayed in this hotel because of the fair reviews. Great location in LA is always a plus right?  At time of check in, I found the staff unprofessional, dressed on their own style with no badges.  Lady at front desk, named Rachel  did not have  a friendly greeting and all desk was pretty messy. In other words, I did not have a comfortable encounter on my first check in. My room was outdated.  There were red curtains that looked like from the 70's and not dusted.  My room was not vacuumed well and floors on restrooms were dirty and cracking.  I stayed at this hotel  for two nights!!   I also found stains on the white bed sheets.  The staff did say they were renovating rooms, but as I walked around, I saw many rooms looking outdated. I went out a lot with family, but coming back to my room was not something I looked forward to.  I tried to call on the phone to contact my family and my phone did not work.  I was not able to contact other rooms or even the front desk.  I asked the front desk staff why the phones were not working and she said she does not know.  The same person that checked me in first time.  It was really inconvenient to walk down the hallway  and knock at my family's door every time. At night I heard every buses, cops, motorcycle...I stayed in this hotel because of the fair reviews. Great location in LA is always a plus right?  At time of check in, I found the staff unprofessional, dressed on their own style with no badges.  Lady at front desk, named Rachel  did not have  a friendly greeting and all desk was pretty messy. In other words, I did not have a comfortable encounter on my first check in. My room was outdated.  There were red curtains that looked like from the 70's and not dusted.  My room was not vacuumed well and floors on restrooms were dirty and cracking.  I stayed at this hotel  for two nights!!   I also found stains on the white bed sheets.  The staff did say they were renovating rooms, but as I walked around, I saw many rooms looking outdated. I went out a lot with family, but coming back to my room was not something I looked forward to.  I tried to call on the phone to contact my family and my phone did not work.  I was not able to contact other rooms or even the front desk.  I asked the front desk staff why the phones were not working and she said she does not know.  The same person that checked me in first time.  It was really inconvenient to walk down the hallway  and knock at my family's door every time. At night I heard every buses, cops, motorcycle that passed by. I had to turn on the A/C all the time so not to hear noises. The bath amenities were really below average.  I would advise highly to bring your own bath amenities.  The continental breakfast was really below average.  They serve 3 types of cereal and a waffle, with beverages.  Two staff stood around, and they just stood around!  You have to literally talk to them to ask for creamer or orange juice and for them to make the waffles.  The creamer can be found on a small fridge that was not visible when you first walk in the restaurant.  There were only 4 tables inside which sits 4 people average. Finding a seat was like a contest.  I came to this hotel because of budget, but also wanted a good location.  I do not think I will be back to stay again at this hotel even though they are priced not that cheap.  Parking is free though and location is near downtown LA.  Just make sure you have a car to stay at this hotel.  Neighborhood is average but try not to walk at nightMore</t>
   </si>
   <si>
+    <t>RozettaKM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r238028575-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -837,6 +939,9 @@
     <t>This was more or less as good as another neaby motel which is my favourite. Very clean, well-decorated, comfortable, private, and breakfast is included. The room facilities included fridge, coffee machine, iron and ironing board, and a good aircon. The only thing missing was a security box. We had a room that overlooked a main road, so there was some noise from the traffic, but closing the window (and turning on the aircon) helped have a good night's sleep. Across the road there is a Mexican bakery which makes tasty bread and various types of cornettos/pastries. Keep in mind, however, that Downtown LA, while beautifully art deco, is also pretty run down and the police seems to be concentrating the city's homeless population there. This can feel a bit intense (and depressing), particularly at night, so if you go make sure you don't look too much like a target. This motel was in relatively safe distance from all this, although not too far. Generally a good base from which to see LA.More</t>
   </si>
   <si>
+    <t>pecanedy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r234937526-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -855,6 +960,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>Patricia R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r224931172-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -867,6 +975,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>Mike U</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r214393912-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -892,6 +1003,9 @@
   </si>
   <si>
     <t>If you're looking for a fairly cheap place to stay in LA, then this is for you. It's in a pretty dodgy part of LA (temple street), and the hotel is surrounded by barbed wire on each side. The neighborhood is also a bit lacking in restaurants. The front desk was nice, and there is free breakfast included, which has your basics (waffles, cereal, fruit), though the fruit was borderline frozen one of the days we had breakfast. The hotel also provides free wifi but it is horrifically slow.The rooms are decent, nothing fancy but nothing terrible either. I can't think of a single thing that made them stand out, good or bad. If you're trying to find a cheap place to stay in LA then this is for you, if you want an area with more nightlife and attractions, then look somewhere else. BTW, the bakery across the street provides good breakfast and juice.P.S. Even though it says convention center on the hotel, the only way to access the convention center quickly is through a cab or uber. Public transit/walking will take you a while.More</t>
+  </si>
+  <si>
+    <t>parisa a</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r208389630-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
@@ -933,6 +1047,9 @@
 -we stayed in room 119 I think and our balcony...My boyfriend and I stayed here for the May 24 long weekend because this was the most decent hotel we could find for our budget. Couple of things to note here before you book this hotel: -it is located in downtown LA which can be pretty sketchy. I would never stay here if I was traveling solo or just with girlfriends. It doesn't feel so safe at night (or even during day!), there are homeless people everywhere in the streets around. -it's in a quiet street with just a corner store/liqueur store across the street. No nearby restaurants or things  -it is pretty close with a cab to staples centre so if I were there to watch a game I would stay at this hotel for the price. -it is close to Union station, centre bus station of the city, which means you can get anywhere from there.-best way to get here/to from the airport is taking the Flyaway shuttle for $8.00 to union station and cab it to the hotel for another $6-8 -there is free breakfast everyday which is nothing glamorous but it saves you in the morning since there isn't any other close place to grab a quick bite. The waffles were good with fruits and maple syrup on top. -the staff at the front desk were all very nice and helpful.-the room was clean -we stayed in room 119 I think and our balcony view was the sky! The balcony was basically digged in the ground! Overall, it is a very budget hotel but  the staff try their best to make everyone's stay pleasant. The area was the reason why my stay in LA wasn't so pleasant. Other than that, the hotel is fine. More</t>
   </si>
   <si>
+    <t>Elizabeth Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r207003997-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -948,6 +1065,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>Shane W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r200119008-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -975,6 +1095,9 @@
     <t>I have mixed feelings about this property.  If you are looking for an affordable room very close to downtown, then this might be what you are looking for.  Our room appeared to have been updated recently and was very large and quite nice. Additionally, both clerks that we met were very kind and friendly.  That said, our room faced the street and we were bombarded with sound throughout the night.  The property also has more rooms than parking spots, so if you return to your room after a night out, you will probably end up having to park on the street.More</t>
   </si>
   <si>
+    <t>Deborah F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r199147781-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -987,6 +1110,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>Ron F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r196573121-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1014,6 +1140,9 @@
     <t>I am staying at the knights in on Temple St. The staff is very friendly, the manager treats his customers as if they were family. The rooms are very clean. I greatly appreciate the breakfast bar every morning. love those waffles. I would recommmend the knights inn to anyone that enjoys kind coutious people. George, the manager, makes it a point to ensure that all of his people are well taken care of. More</t>
   </si>
   <si>
+    <t>Fakahany</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r189821359-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1035,6 +1164,9 @@
     <t>Really a nice place and good service ask for George he is really nice guy and helpful. The internet there is perfect, hotel in the middle of the town for it is reachable.The tip for you is George and the team....a very friendly atmosphere, they will guide you thru LA  and  u will. Feel like home, they want nothing but to make sure u r served right and that you enjoy the placeMore</t>
   </si>
   <si>
+    <t>Rob L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r187341019-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1062,6 +1194,9 @@
     <t>We were on our last leg of our honeymoon and just wanted something affordale and cosy.George was amazing and kind, Recommeding place to go and things to see. The rooms were tidy and a good size , We stayed for around 5 nights and had no problems at all the bus is right out front which saves on hiring a car.we would stay again if we were ever to go back to la.More</t>
   </si>
   <si>
+    <t>Bryn E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r187241070-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1080,6 +1215,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>Ross E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r180609932-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1101,6 +1239,9 @@
     <t>I stayed at this place for a week for work because it was close to downtown LA without being crazy expensive. Although the building looks a little old from the outside, it was well kept on the inside, very clean, and was quiet, which is important for me since I am a very light sleeper. I was weary about all the reviews I had read regarding the area, but I had no issues getting around to and from downtown LA and going to the stores and restaurants around at night, all on foot.Probably the best thing about this hotel though is the staff. George (the manager) has a well deserved reputation of being a very good host and was able to accommodate some of the needs I had, being there on business. Will definitely stay at again the next time I go to the area, for business or pleasure.More</t>
   </si>
   <si>
+    <t>Accatch07</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r180115036-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1125,6 +1266,9 @@
     <t>This place is great, the owner George is awesome, went out of his way to make sure we had a great stay, great waffles for breakfast for free, great tacos across street at bakery, and the rooms are nice, free parking garage, and wifi. Awesome staff recommend staying here when in town for dodgers game , 1 mile from stadium.More</t>
   </si>
   <si>
+    <t>hoosiervegas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r179764662-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1149,6 +1293,9 @@
     <t>First time staying at a Knights in property...booked because of Wyndham loyalty program. I am flexible in my lodging choices, with two (1) prerequisites: 1) safety and  2) cleanliness. The property is in a marginal area and is undergoing a renovation...not a pretty sight on the exterior. In fact, if I were more familiar with Los Angeles and knew of other options in the area, I wouldn't have gone in. Before checking in I opted to check out one of the rooms. I found the room to be clean and it was apparent that it had undergone a recent renovation. I found the renovation to be adequate for a property at Knight's Inn price point. However,  I was taken aback by the manager's response, when I asked about security. He responded that gangs were about three (3) blocks away and said that if you didn't confront them, one shouldn't have a problem. As a lone traveler, his comments didn't make me feel warm, fuzzy or safe.  Generally, I opt for high level floors and will not stay at ground level, for security reasons. But, this property only has one level.  I ended up staying at the property for several days, but only spent about three (3) hours there. I wouldn't return. If you are a lone traveler, particularly if you do not have a car, I would recommend coming and going only during daylight hours.More</t>
   </si>
   <si>
+    <t>Connie A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r176380867-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1174,6 +1321,9 @@
   </si>
   <si>
     <t>This hotel is a hidden treasure. Only 1 mile for Dodger stadium the rooms are clean and refurbished. Direct tv with over 300 channels, free breakfast, free secure underground parking and most of all the BBQ restaurant on site The Parks Finest... Wow. I paid less than hundred dollars and had a pleasant two day stay. The staff of the hotel are great and very knowledgable about the local area. Don't miss the Walt Disney Concert hall and the fashion district. Thanks and see you soon.More</t>
+  </si>
+  <si>
+    <t>Cassie-Andy</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r169551324-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
@@ -1202,6 +1352,9 @@
     <t>We arrived here after driving from San Francisco, so it was quite late. Lady at check in was very friendly and helpful, gave us all the info we needed. The room was great, newly decorated and the most comfortable bed we've slept on in a hotel for some time at this price range. Nice big LCD tv on the wall and good wifi coverage
 This was a fair distance from Disneyland and your usual LA attractions, but close if you are working in the CBD. There is also a bus stop across the street for those without a vehicle.Breakfast was basic but a nice waffle to go with it and we always filled up on this. Hardly needing any lunch which saved us time and money.
 The only down side to this hotel was the fact that parking was a little scarce, one night we arrived late after seeing the fireworks at Disneyland and there were only 2 car parks left 1 was too small for our car and the other we couldn't fit as someone had parked over the line. We asked the man at the counter if we could park up against the brick wall for the night, he said no and didn't offer any alternative and couldn't even tell us the rules about parking on the street. so we had to park on the street which was free overnight and then a 1 hour limit from 8am...We arrived here after driving from San Francisco, so it was quite late. Lady at check in was very friendly and helpful, gave us all the info we needed. The room was great, newly decorated and the most comfortable bed we've slept on in a hotel for some time at this price range. Nice big LCD tv on the wall and good wifi coverageThis was a fair distance from Disneyland and your usual LA attractions, but close if you are working in the CBD. There is also a bus stop across the street for those without a vehicle.Breakfast was basic but a nice waffle to go with it and we always filled up on this. Hardly needing any lunch which saved us time and money.The only down side to this hotel was the fact that parking was a little scarce, one night we arrived late after seeing the fireworks at Disneyland and there were only 2 car parks left 1 was too small for our car and the other we couldn't fit as someone had parked over the line. We asked the man at the counter if we could park up against the brick wall for the night, he said no and didn't offer any alternative and couldn't even tell us the rules about parking on the street. so we had to park on the street which was free overnight and then a 1 hour limit from 8am which was a slight pain as we were hoping for a sleep in. To rub salt in the wound 2 days later we found 2 cars parked against the brick wall.To sum it up, it was very nice, very clean. Just a minor let down with the parking.More</t>
+  </si>
+  <si>
+    <t>SpiritNZ</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r169183010-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
@@ -1228,6 +1381,9 @@
 The Inn is situated in a residential area, but a bus service is right outside the door, and taxis etc were readily available.. The Union Station was a short bus ride away....The room we had was large and the beds were king size and very comfortable, with a desk for do office work with ones computer, and this was very convenient. There was a large flat screened TV, which was well serviced by the staff, if any thing went wrong with it. There was a fridge for keeping thing cold: a large duchess for our clothes and walk in wardrobe. An ironing board and iron. The bathroom was a good size with bath and shower facilities. We took showers, and the water was plentiful and nice and hot, (having room to adjust and more for heat). We could take showers any time of the day. A hair drier was available, but did not use it. We were able to wash small items, and hang them to dry. The room had a balcony with comfortable rocking chairs and table, which was very nice as the weather while we were there was in the mid twenties. We had air conditioning in the room.The linen was changed every day, with nice white linen. Room service was very good if one needed anything. All the staff are friendly and they did all they could to make our stay a very pleasant one. The Inn is situated in a residential area, but a bus service is right outside the door, and taxis etc were readily available.. The Union Station was a short bus ride away.There were little stores where one good get most of the necessary things, needed while on holiday. There is even a Bakery over the road, where one can get yummy fresh baked bread and all sorts of other caked and lunch snacks and light meals. The service here was very nice and friendly.We were directed to a Laundry/Dry cleaner for the washing, which was very good. I left the washing and it was all ready the next day. I picked it up, so I don't know whether there was a delivery service. The standard of the laundry was very good. Over all I would recommend Knights Inn to anyone who does not mind an older style building. For us, we found Knights Inn a very friendly and comfortable place to stay and the service by all the staff, was exceptional!The other thing I forgot to mention was, we had breakfast provided free each day! Waffles were made fresh each day, with Maple Syrup and they were delicious. My husband liked the friendly, well light reception area, which looked out onto the road and also the breakfast room, where one could listen to the news while eating and also look out onto the street. There was a patio with flower planters to sit at, when waiting for a taxi or just if one want to enjoy a quiet spell. Knights Inn is a very pleasant place to stay!More</t>
   </si>
   <si>
+    <t>Jables89</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r162698540-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1255,6 +1411,9 @@
     <t>The outside is pretty daunting when you turn up, but the rooms are nice &amp; spacious, made a mistake by not realising that it is on the back of a freeway, very noisy if you open the doors. One thing that was worrying us when we arrived was that there were a fair amount of "characters" in this area giving us the stare, not exactly the place you would go &amp; venture out for a pint somewhere. On the upside, the breakfast was quite good &amp; spacious room for all the guests, there was also a nice European girl who made me waffles which was a bonus ;)More</t>
   </si>
   <si>
+    <t>Sens4life</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r157746443-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1282,6 +1441,9 @@
     <t>I would ignore the older reviews, this place has a new owner and the manager is one of the most courteous hoteliers I've ever met. Outside of the room, this place is pretty grim. As for the room itself, I was informed that I got a renovated room (at the time of this review, not all rooms have been renovated) and I was impressed. Fresh paint, Full sized beds, free fast wifi, fridge, iron and board in the closet, and best of all an HDTV TV with hundreds of channels from DirecTV. The mirror in the bathroom was missing. Free breakfast featuring waffles and oatmeal amongst the usual stuff. There's a pretty good Filipino BBQ restaurant next door and locally owned convenience shops across the street.If you stay here, utilize the #10 bus. It runs every 20 minutes or so downtown. The closest metro rail station is Civic Center/Grand Park, get off at 1st Street. The bus also runs to West Hollywood in the other direction, if you're into that sort of thing.Good location, good breakfast, great rooms and caring. Neighbourhood is a bit intimidating at night but almost all of downtown LA is. Recommended!More</t>
   </si>
   <si>
+    <t>Steve_Roc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r156512213-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1303,6 +1465,9 @@
     <t>This was my first time here so I can't say what it used to be like but now it's a perfectly good, basic motel within easy walking distance of downtown (including Chinatown, little Tokyo, the Fashion District etc) There are also bus stops outside.My room had been recently refurbished and everything was clean and good quality. There's a coffee machine and fridge and there's a microwave in the breakfast room which you can use.Breakfast is cereal, toast, waffles and fresh fruit and it's adequate to get you started.The area around the hotel isn't beautiful but it's not at all dangerous (and apparently Echo Park is one of the up and coming parts of Los Angeles)Next to the motel is a bar/restaurant called The Park's Finest which serves a good range of beers and barbecue type meats - the portions are huge!Across the road there's a bakery which is pretty good (I had a very nice banana muffin for just $1). There's also a greengrocer next to this if you want some fresh fruit.More</t>
   </si>
   <si>
+    <t>Dotty M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r138944451-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1330,6 +1495,9 @@
     <t>So, we were suckered in by Hotwire which booked the room and then we couldnt cancel. Checking in was OK. Parking lot seemed a bit shady, but we didn't get mugged and car was not broken into so thats a bonus. Check in was OK, staff was nice. There was a huge iron burn mark on the floor. Upon inspection of the bedding, there was a huge obvious brownish reddish streaks all over the sheets. We are pretty chill, but that was a bit much for us. If you have a choice in the matter, dont stay here. There is an awesome Mexican bakery across the street which is worth noting.More</t>
   </si>
   <si>
+    <t>Igor S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r133695722-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1346,6 +1514,9 @@
   </si>
   <si>
     <t>June 2012</t>
+  </si>
+  <si>
+    <t>Chasetheace94</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d589309-r130376724-Knights_Inn_Los_Angeles_Central_Convention_Center_Area-Los_Angeles_California.html</t>
@@ -1868,43 +2039,47 @@
       <c r="A2" t="n">
         <v>43373</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -1924,50 +2099,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>43373</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -1985,50 +2164,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>43373</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -2048,50 +2231,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>43373</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2105,50 +2292,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>43373</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -2168,50 +2359,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>43373</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="O7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -2231,50 +2426,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>43373</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2288,50 +2487,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>43373</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2345,50 +2548,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>43373</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="L10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="O10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2402,50 +2609,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>43373</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="J11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="L11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="O11" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -2465,50 +2676,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>43373</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>126</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="J12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="K12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="L12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2522,50 +2737,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>43373</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>133</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="J13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="K13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="L13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="O13" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2579,50 +2798,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>43373</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>139</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="J14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="K14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -2642,50 +2865,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>43373</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>147</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="J15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="K15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="L15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="O15" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2699,50 +2926,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>43373</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>154</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="J16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="K16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="L16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2756,50 +2987,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>43373</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>161</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="J17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="K17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="L17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="O17" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2819,50 +3054,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>43373</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>169</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="J18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="K18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="L18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="O18" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2876,50 +3115,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>43373</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>176</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="J19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="K19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="L19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="O19" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2933,50 +3176,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>43373</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>183</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="J20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="K20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="L20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="O20" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2990,50 +3237,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>43373</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>189</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="J21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="K21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="L21" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="O21" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3047,50 +3298,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>43373</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>196</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="J22" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="K22" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="O22" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3104,50 +3359,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>43373</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>203</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="J23" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="K23" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="L23" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -3167,50 +3426,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>43373</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>210</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="J24" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="K24" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="L24" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="O24" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3224,41 +3487,45 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>43373</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>216</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="J25" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="K25" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="L25" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
@@ -3277,50 +3544,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>43373</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>223</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="J26" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="K26" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="L26" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="n">
         <v>2</v>
@@ -3340,50 +3611,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>43373</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>231</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="J27" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="K27" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="L27" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="O27" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="n">
@@ -3401,50 +3676,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>43373</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>238</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="J28" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="K28" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="L28" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3458,50 +3737,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>43373</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>245</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="J29" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="K29" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="L29" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="n">
@@ -3519,50 +3802,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>43373</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>253</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="J30" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="K30" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="L30" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="O30" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -3580,50 +3867,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>43373</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>260</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="J31" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="K31" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="L31" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="O31" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -3643,50 +3934,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>43373</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>268</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="J32" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="K32" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="L32" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3698,56 +3993,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="X32" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="Y32" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>43373</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>277</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="J33" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="K33" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="L33" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3763,56 +4062,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="X33" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="Y33" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>43373</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>285</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="J34" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="K34" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="L34" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="M34" t="n">
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="O34" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -3830,50 +4133,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>43373</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>292</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="J35" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="K35" t="s">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="L35" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -3891,56 +4198,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="X35" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="Y35" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>43373</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>301</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="J36" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="K36" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="L36" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="O36" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -3954,35 +4265,39 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>43373</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>308</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="J37" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="K37" t="s"/>
       <c r="L37" t="s"/>
@@ -3990,10 +4305,10 @@
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="n">
         <v>4</v>
@@ -4014,51 +4329,52 @@
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
-      <c r="Y37" t="s"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>43373</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>313</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="J38" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="K38" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="L38" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="O38" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="n">
@@ -4074,56 +4390,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="X38" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="Y38" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>43373</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>323</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="J39" t="s">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="K39" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="L39" t="s">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4137,48 +4457,52 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>43373</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>331</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="J40" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="K40" t="s"/>
       <c r="L40" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4202,50 +4526,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>43373</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>337</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="J41" t="s">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="K41" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="L41" t="s">
-        <v>302</v>
+        <v>342</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>303</v>
+        <v>343</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="n">
         <v>4</v>
@@ -4267,41 +4595,45 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>304</v>
+        <v>344</v>
       </c>
       <c r="X41" t="s">
-        <v>305</v>
+        <v>345</v>
       </c>
       <c r="Y41" t="s">
-        <v>306</v>
+        <v>346</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>43373</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>347</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>307</v>
+        <v>348</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>308</v>
+        <v>349</v>
       </c>
       <c r="J42" t="s">
-        <v>309</v>
+        <v>350</v>
       </c>
       <c r="K42" t="s"/>
       <c r="L42" t="s"/>
@@ -4309,10 +4641,10 @@
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>310</v>
+        <v>351</v>
       </c>
       <c r="O42" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4333,51 +4665,52 @@
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
-      <c r="Y42" t="s"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>43373</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>352</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>311</v>
+        <v>353</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>312</v>
+        <v>354</v>
       </c>
       <c r="J43" t="s">
-        <v>313</v>
+        <v>355</v>
       </c>
       <c r="K43" t="s">
-        <v>314</v>
+        <v>356</v>
       </c>
       <c r="L43" t="s">
-        <v>315</v>
+        <v>357</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="O43" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4399,47 +4732,51 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>317</v>
+        <v>359</v>
       </c>
       <c r="X43" t="s">
-        <v>318</v>
+        <v>360</v>
       </c>
       <c r="Y43" t="s">
-        <v>319</v>
+        <v>361</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>43373</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>362</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>320</v>
+        <v>363</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>321</v>
+        <v>364</v>
       </c>
       <c r="J44" t="s">
-        <v>322</v>
+        <v>365</v>
       </c>
       <c r="K44" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L44" t="s">
-        <v>323</v>
+        <v>366</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
@@ -4456,56 +4793,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>324</v>
+        <v>367</v>
       </c>
       <c r="X44" t="s">
-        <v>325</v>
+        <v>368</v>
       </c>
       <c r="Y44" t="s">
-        <v>326</v>
+        <v>369</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>43373</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>370</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>327</v>
+        <v>371</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>328</v>
+        <v>372</v>
       </c>
       <c r="J45" t="s">
-        <v>329</v>
+        <v>373</v>
       </c>
       <c r="K45" t="s">
-        <v>330</v>
+        <v>374</v>
       </c>
       <c r="L45" t="s">
-        <v>331</v>
+        <v>375</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>332</v>
+        <v>376</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
@@ -4527,56 +4868,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>333</v>
+        <v>377</v>
       </c>
       <c r="X45" t="s">
-        <v>334</v>
+        <v>378</v>
       </c>
       <c r="Y45" t="s">
-        <v>335</v>
+        <v>379</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>43373</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>380</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>336</v>
+        <v>381</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>337</v>
+        <v>382</v>
       </c>
       <c r="J46" t="s">
-        <v>338</v>
+        <v>383</v>
       </c>
       <c r="K46" t="s">
-        <v>339</v>
+        <v>384</v>
       </c>
       <c r="L46" t="s">
-        <v>340</v>
+        <v>385</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>341</v>
+        <v>386</v>
       </c>
       <c r="O46" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -4600,50 +4945,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>340</v>
+        <v>385</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>43373</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>387</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>342</v>
+        <v>388</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>343</v>
+        <v>389</v>
       </c>
       <c r="J47" t="s">
-        <v>344</v>
+        <v>390</v>
       </c>
       <c r="K47" t="s">
-        <v>345</v>
+        <v>391</v>
       </c>
       <c r="L47" t="s">
-        <v>346</v>
+        <v>392</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>347</v>
+        <v>393</v>
       </c>
       <c r="O47" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -4667,50 +5016,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>348</v>
+        <v>394</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>43373</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>395</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>349</v>
+        <v>396</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>350</v>
+        <v>397</v>
       </c>
       <c r="J48" t="s">
-        <v>351</v>
+        <v>398</v>
       </c>
       <c r="K48" t="s">
-        <v>352</v>
+        <v>399</v>
       </c>
       <c r="L48" t="s">
-        <v>353</v>
+        <v>400</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>332</v>
+        <v>376</v>
       </c>
       <c r="O48" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -4722,56 +5075,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>354</v>
+        <v>401</v>
       </c>
       <c r="X48" t="s">
-        <v>355</v>
+        <v>402</v>
       </c>
       <c r="Y48" t="s">
-        <v>356</v>
+        <v>403</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>43373</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>404</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>357</v>
+        <v>405</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>358</v>
+        <v>406</v>
       </c>
       <c r="J49" t="s">
-        <v>359</v>
+        <v>407</v>
       </c>
       <c r="K49" t="s">
-        <v>360</v>
+        <v>408</v>
       </c>
       <c r="L49" t="s">
-        <v>361</v>
+        <v>409</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>347</v>
+        <v>393</v>
       </c>
       <c r="O49" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P49" t="n">
         <v>3</v>
@@ -4793,56 +5150,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>362</v>
+        <v>410</v>
       </c>
       <c r="X49" t="s">
-        <v>363</v>
+        <v>411</v>
       </c>
       <c r="Y49" t="s">
-        <v>364</v>
+        <v>412</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>43373</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>413</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>365</v>
+        <v>414</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>366</v>
+        <v>415</v>
       </c>
       <c r="J50" t="s">
-        <v>367</v>
+        <v>416</v>
       </c>
       <c r="K50" t="s">
-        <v>368</v>
+        <v>417</v>
       </c>
       <c r="L50" t="s">
-        <v>369</v>
+        <v>418</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>370</v>
+        <v>419</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -4854,56 +5215,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>371</v>
+        <v>420</v>
       </c>
       <c r="X50" t="s">
-        <v>372</v>
+        <v>421</v>
       </c>
       <c r="Y50" t="s">
-        <v>373</v>
+        <v>422</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>43373</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>423</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>374</v>
+        <v>424</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>375</v>
+        <v>425</v>
       </c>
       <c r="J51" t="s">
-        <v>376</v>
+        <v>426</v>
       </c>
       <c r="K51" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="L51" t="s">
-        <v>377</v>
+        <v>427</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>378</v>
+        <v>428</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -4925,56 +5290,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>379</v>
+        <v>429</v>
       </c>
       <c r="X51" t="s">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="Y51" t="s">
-        <v>381</v>
+        <v>431</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>43373</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>432</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>382</v>
+        <v>433</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>383</v>
+        <v>434</v>
       </c>
       <c r="J52" t="s">
-        <v>384</v>
+        <v>435</v>
       </c>
       <c r="K52" t="s">
-        <v>385</v>
+        <v>436</v>
       </c>
       <c r="L52" t="s">
-        <v>386</v>
+        <v>437</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>378</v>
+        <v>428</v>
       </c>
       <c r="O52" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -4996,56 +5365,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>379</v>
+        <v>429</v>
       </c>
       <c r="X52" t="s">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="Y52" t="s">
-        <v>387</v>
+        <v>438</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>43373</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>439</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>388</v>
+        <v>440</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>389</v>
+        <v>441</v>
       </c>
       <c r="J53" t="s">
-        <v>390</v>
+        <v>442</v>
       </c>
       <c r="K53" t="s">
-        <v>391</v>
+        <v>443</v>
       </c>
       <c r="L53" t="s">
-        <v>392</v>
+        <v>444</v>
       </c>
       <c r="M53" t="n">
         <v>2</v>
       </c>
       <c r="N53" t="s">
-        <v>393</v>
+        <v>445</v>
       </c>
       <c r="O53" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P53" t="n">
         <v>3</v>
@@ -5067,56 +5440,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>394</v>
+        <v>446</v>
       </c>
       <c r="X53" t="s">
-        <v>395</v>
+        <v>447</v>
       </c>
       <c r="Y53" t="s">
-        <v>396</v>
+        <v>448</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>43373</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>449</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>397</v>
+        <v>450</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>398</v>
+        <v>451</v>
       </c>
       <c r="J54" t="s">
-        <v>399</v>
+        <v>452</v>
       </c>
       <c r="K54" t="s">
-        <v>400</v>
+        <v>453</v>
       </c>
       <c r="L54" t="s">
-        <v>401</v>
+        <v>454</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>402</v>
+        <v>455</v>
       </c>
       <c r="O54" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -5128,56 +5505,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>403</v>
+        <v>456</v>
       </c>
       <c r="X54" t="s">
-        <v>404</v>
+        <v>457</v>
       </c>
       <c r="Y54" t="s">
-        <v>405</v>
+        <v>458</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>43373</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>459</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>406</v>
+        <v>460</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>407</v>
+        <v>461</v>
       </c>
       <c r="J55" t="s">
-        <v>408</v>
+        <v>462</v>
       </c>
       <c r="K55" t="s">
-        <v>409</v>
+        <v>463</v>
       </c>
       <c r="L55" t="s">
-        <v>410</v>
+        <v>464</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>411</v>
+        <v>465</v>
       </c>
       <c r="O55" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P55" t="n">
         <v>3</v>
@@ -5199,56 +5580,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>403</v>
+        <v>456</v>
       </c>
       <c r="X55" t="s">
-        <v>404</v>
+        <v>457</v>
       </c>
       <c r="Y55" t="s">
-        <v>412</v>
+        <v>466</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>43373</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>467</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>413</v>
+        <v>468</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>414</v>
+        <v>469</v>
       </c>
       <c r="J56" t="s">
-        <v>415</v>
+        <v>470</v>
       </c>
       <c r="K56" t="s">
-        <v>416</v>
+        <v>471</v>
       </c>
       <c r="L56" t="s">
-        <v>417</v>
+        <v>472</v>
       </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>418</v>
+        <v>473</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="n">
         <v>1</v>
@@ -5270,56 +5655,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>419</v>
+        <v>474</v>
       </c>
       <c r="X56" t="s">
-        <v>420</v>
+        <v>475</v>
       </c>
       <c r="Y56" t="s">
-        <v>421</v>
+        <v>476</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>43373</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>477</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>422</v>
+        <v>478</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>423</v>
+        <v>479</v>
       </c>
       <c r="J57" t="s">
-        <v>424</v>
+        <v>480</v>
       </c>
       <c r="K57" t="s">
-        <v>425</v>
+        <v>481</v>
       </c>
       <c r="L57" t="s">
-        <v>426</v>
+        <v>482</v>
       </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>427</v>
+        <v>483</v>
       </c>
       <c r="O57" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P57" t="n">
         <v>1</v>
@@ -5343,50 +5732,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>426</v>
+        <v>482</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>43373</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>484</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>428</v>
+        <v>485</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>429</v>
+        <v>486</v>
       </c>
       <c r="J58" t="s">
-        <v>430</v>
+        <v>487</v>
       </c>
       <c r="K58" t="s">
-        <v>431</v>
+        <v>488</v>
       </c>
       <c r="L58" t="s">
-        <v>432</v>
+        <v>489</v>
       </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>433</v>
+        <v>490</v>
       </c>
       <c r="O58" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P58" t="n">
         <v>1</v>
@@ -5410,7 +5803,7 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>432</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
